--- a/doc/CS673_SPPP_RiskManagement_team3.xlsx
+++ b/doc/CS673_SPPP_RiskManagement_team3.xlsx
@@ -445,7 +445,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -458,12 +458,6 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border/>
@@ -474,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -487,16 +481,13 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -504,12 +495,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -644,78 +629,78 @@
       <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>2.0</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>4.0</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>4.0</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <f t="shared" ref="G3:G28" si="1">(6-D3)*(6-E3)*F3</f>
         <v>32</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <v>44713.0</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
     </row>
     <row r="4">
-      <c r="A4" s="9"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="4">
         <v>4.0</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="4">
         <v>3.0</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="4">
         <v>1.0</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="5">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="9">
         <v>45791.0</v>
       </c>
       <c r="J4" s="3" t="s">
@@ -727,47 +712,47 @@
       <c r="L4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
     </row>
     <row r="5">
-      <c r="A5" s="9"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="4">
         <v>1.0</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="4">
         <v>5.0</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="4">
         <v>5.0</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="5">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="10">
         <v>45825.0</v>
       </c>
       <c r="J5" s="3" t="s">
@@ -779,21 +764,21 @@
       <c r="L5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
@@ -805,23 +790,23 @@
       <c r="C6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="4">
         <v>1.0</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="4">
         <v>4.0</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="4">
         <v>4.0</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="5">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="10">
         <v>45825.0</v>
       </c>
       <c r="J6" s="3" t="s">
@@ -833,47 +818,47 @@
       <c r="L6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
     </row>
     <row r="7">
-      <c r="A7" s="14"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="4">
         <v>3.0</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="4">
         <v>5.0</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="4">
         <v>4.0</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="5">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="9">
         <v>45825.0</v>
       </c>
       <c r="J7" s="3" t="s">
@@ -885,21 +870,21 @@
       <c r="L7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
     </row>
     <row r="8">
       <c r="A8" s="3"/>
@@ -909,23 +894,23 @@
       <c r="C8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="4">
         <v>1.0</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="4">
         <v>3.0</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="4">
         <v>4.0</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="5">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="9">
         <v>45825.0</v>
       </c>
       <c r="J8" s="3" t="s">
@@ -937,47 +922,47 @@
       <c r="L8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
     </row>
     <row r="9">
       <c r="A9" s="3"/>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="4">
         <v>3.0</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="4">
         <v>5.0</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="4">
         <v>5.0</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="5">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="9">
         <v>45825.0</v>
       </c>
       <c r="J9" s="3" t="s">
@@ -989,21 +974,21 @@
       <c r="L9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
@@ -1015,23 +1000,23 @@
       <c r="C10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="4">
         <v>3.0</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="4">
         <v>5.0</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="4">
         <v>5.0</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="5">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="9">
         <v>45825.0</v>
       </c>
       <c r="J10" s="3" t="s">
@@ -1043,47 +1028,47 @@
       <c r="L10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
     </row>
     <row r="11">
-      <c r="A11" s="9"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="4">
         <v>4.0</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="4">
         <v>5.0</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="4">
         <v>5.0</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="5">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="9">
         <v>45825.0</v>
       </c>
       <c r="J11" s="3" t="s">
@@ -1095,47 +1080,47 @@
       <c r="L11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="8"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
     </row>
     <row r="12">
-      <c r="A12" s="9"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="4">
         <v>3.0</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="4">
         <v>5.0</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="4">
         <v>5.0</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="5">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="9">
         <v>45825.0</v>
       </c>
       <c r="J12" s="3" t="s">
@@ -1147,21 +1132,21 @@
       <c r="L12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="8"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
@@ -1173,23 +1158,23 @@
       <c r="C13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="4">
         <v>4.0</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="4">
         <v>5.0</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="4">
         <v>5.0</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="5">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="9">
         <v>45825.0</v>
       </c>
       <c r="J13" s="3" t="s">
@@ -1201,47 +1186,47 @@
       <c r="L13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="8"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
     </row>
     <row r="14">
-      <c r="A14" s="9"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="4">
         <v>3.0</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="4">
         <v>5.0</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="4">
         <v>5.0</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="5">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="9">
         <v>45825.0</v>
       </c>
       <c r="J14" s="3" t="s">
@@ -1253,47 +1238,47 @@
       <c r="L14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="8"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
     </row>
     <row r="15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="15" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="12" t="s">
         <v>68</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="4">
         <v>2.0</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="4">
         <v>5.0</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="4">
         <v>5.0</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="9">
         <v>45825.0</v>
       </c>
       <c r="J15" s="3" t="s">
@@ -1305,21 +1290,21 @@
       <c r="L15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="8"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
@@ -1331,23 +1316,23 @@
       <c r="C16" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="4">
         <v>4.0</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="4">
         <v>2.0</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="4">
         <v>2.0</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="5">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="9">
         <v>45825.0</v>
       </c>
       <c r="J16" s="3" t="s">
@@ -1359,47 +1344,47 @@
       <c r="L16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="8"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
     </row>
     <row r="17">
-      <c r="A17" s="9"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="4">
         <v>4.0</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="4">
         <v>2.0</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="4">
         <v>2.0</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="5">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="9">
         <v>45825.0</v>
       </c>
       <c r="J17" s="3" t="s">
@@ -1411,47 +1396,47 @@
       <c r="L17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-      <c r="AA17" s="8"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
     </row>
     <row r="18">
-      <c r="A18" s="9"/>
+      <c r="A18" s="8"/>
       <c r="B18" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="4">
         <v>4.0</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="4">
         <v>2.0</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="4">
         <v>2.0</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="5">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="9">
         <v>45825.0</v>
       </c>
       <c r="J18" s="3" t="s">
@@ -1463,47 +1448,47 @@
       <c r="L18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
-      <c r="AA18" s="8"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
     </row>
     <row r="19">
-      <c r="A19" s="9"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="4">
         <v>4.0</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="4">
         <v>2.0</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="4">
         <v>2.0</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="5">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="9">
         <v>45825.0</v>
       </c>
       <c r="J19" s="3" t="s">
@@ -1515,47 +1500,47 @@
       <c r="L19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
-      <c r="AA19" s="8"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
     </row>
     <row r="20">
-      <c r="A20" s="9"/>
+      <c r="A20" s="8"/>
       <c r="B20" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="4">
         <v>1.0</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="4">
         <v>1.0</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="4">
         <v>1.0</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="5">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="9">
         <v>45791.0</v>
       </c>
       <c r="J20" s="3" t="s">
@@ -1567,21 +1552,21 @@
       <c r="L20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="8"/>
-      <c r="AA20" s="8"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
@@ -1593,23 +1578,23 @@
       <c r="C21" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="4">
         <v>3.0</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="4">
         <v>5.0</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="4">
         <v>5.0</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="5">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="9">
         <v>45825.0</v>
       </c>
       <c r="J21" s="3" t="s">
@@ -1621,21 +1606,21 @@
       <c r="L21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="8"/>
-      <c r="AA21" s="8"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
     </row>
     <row r="22">
       <c r="A22" s="3"/>
@@ -1645,23 +1630,23 @@
       <c r="C22" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="4">
         <v>3.0</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="4">
         <v>5.0</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="4">
         <v>5.0</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="5">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="9">
         <v>45825.0</v>
       </c>
       <c r="J22" s="3" t="s">
@@ -1673,21 +1658,21 @@
       <c r="L22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="8"/>
-      <c r="AA22" s="8"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
     </row>
     <row r="23">
       <c r="A23" s="3"/>
@@ -1697,23 +1682,23 @@
       <c r="C23" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="4">
         <v>4.0</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="4">
         <v>5.0</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="4">
         <v>5.0</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="5">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I23" s="9">
         <v>45825.0</v>
       </c>
       <c r="J23" s="3" t="s">
@@ -1725,21 +1710,21 @@
       <c r="L23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="8"/>
-      <c r="AA23" s="8"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
@@ -1751,23 +1736,23 @@
       <c r="C24" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="4">
         <v>4.0</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="4">
         <v>5.0</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="4">
         <v>5.0</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="5">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="9">
         <v>45825.0</v>
       </c>
       <c r="J24" s="3" t="s">
@@ -1779,49 +1764,49 @@
       <c r="L24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="8"/>
-      <c r="AA24" s="8"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="13" t="s">
         <v>113</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="4">
         <v>5.0</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="4">
         <v>5.0</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="4">
         <v>5.0</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="5">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="9">
         <v>45825.0</v>
       </c>
       <c r="J25" s="3" t="s">
@@ -1833,21 +1818,21 @@
       <c r="L25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="8"/>
-      <c r="Y25" s="8"/>
-      <c r="Z25" s="8"/>
-      <c r="AA25" s="8"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
     </row>
     <row r="26">
       <c r="A26" s="2"/>
@@ -1857,23 +1842,23 @@
       <c r="C26" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="4">
         <v>4.0</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="4">
         <v>5.0</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="4">
         <v>5.0</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="5">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="9">
         <v>45825.0</v>
       </c>
       <c r="J26" s="3" t="s">
@@ -1885,21 +1870,21 @@
       <c r="L26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="8"/>
-      <c r="Y26" s="8"/>
-      <c r="Z26" s="8"/>
-      <c r="AA26" s="8"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
@@ -1911,23 +1896,23 @@
       <c r="C27" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="4">
         <v>4.0</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="4">
         <v>5.0</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="4">
         <v>5.0</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="5">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I27" s="9">
         <v>45825.0</v>
       </c>
       <c r="J27" s="3" t="s">
@@ -1939,3557 +1924,3557 @@
       <c r="L27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="8"/>
-      <c r="AA27" s="8"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
     </row>
     <row r="28" ht="60.75" customHeight="1">
-      <c r="A28" s="17"/>
-      <c r="B28" s="15" t="s">
+      <c r="A28" s="14"/>
+      <c r="B28" s="12" t="s">
         <v>126</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="15">
         <v>5.0</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="15">
         <v>5.0</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="15">
         <v>5.0</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="5">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="I28" s="19">
+      <c r="I28" s="16">
         <v>45825.0</v>
       </c>
-      <c r="J28" s="20" t="s">
+      <c r="J28" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="K28" s="17" t="s">
+      <c r="K28" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="L28" s="17" t="s">
+      <c r="L28" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="8"/>
-      <c r="X28" s="8"/>
-      <c r="Y28" s="8"/>
-      <c r="Z28" s="8"/>
-      <c r="AA28" s="8"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
     </row>
     <row r="29">
-      <c r="A29" s="17"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="8"/>
-      <c r="X29" s="8"/>
-      <c r="Y29" s="8"/>
-      <c r="Z29" s="8"/>
-      <c r="AA29" s="8"/>
+      <c r="A29" s="14"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
     </row>
     <row r="30">
-      <c r="A30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
-      <c r="Y30" s="8"/>
-      <c r="Z30" s="8"/>
-      <c r="AA30" s="8"/>
+      <c r="A30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
     </row>
     <row r="31">
-      <c r="A31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="8"/>
-      <c r="X31" s="8"/>
-      <c r="Y31" s="8"/>
-      <c r="Z31" s="8"/>
-      <c r="AA31" s="8"/>
+      <c r="A31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
     </row>
     <row r="32">
-      <c r="A32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="8"/>
-      <c r="V32" s="8"/>
-      <c r="W32" s="8"/>
-      <c r="X32" s="8"/>
-      <c r="Y32" s="8"/>
-      <c r="Z32" s="8"/>
-      <c r="AA32" s="8"/>
+      <c r="A32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
     </row>
     <row r="33">
-      <c r="A33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="8"/>
-      <c r="X33" s="8"/>
-      <c r="Y33" s="8"/>
-      <c r="Z33" s="8"/>
-      <c r="AA33" s="8"/>
+      <c r="A33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="7"/>
     </row>
     <row r="34">
-      <c r="A34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="8"/>
-      <c r="X34" s="8"/>
-      <c r="Y34" s="8"/>
-      <c r="Z34" s="8"/>
-      <c r="AA34" s="8"/>
+      <c r="A34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="7"/>
     </row>
     <row r="35">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="8"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="8"/>
-      <c r="X35" s="8"/>
-      <c r="Y35" s="8"/>
-      <c r="Z35" s="8"/>
-      <c r="AA35" s="8"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="7"/>
+      <c r="AA35" s="7"/>
     </row>
     <row r="36">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="8"/>
-      <c r="V36" s="8"/>
-      <c r="W36" s="8"/>
-      <c r="X36" s="8"/>
-      <c r="Y36" s="8"/>
-      <c r="Z36" s="8"/>
-      <c r="AA36" s="8"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="7"/>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="7"/>
     </row>
     <row r="37">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="8"/>
-      <c r="U37" s="8"/>
-      <c r="V37" s="8"/>
-      <c r="W37" s="8"/>
-      <c r="X37" s="8"/>
-      <c r="Y37" s="8"/>
-      <c r="Z37" s="8"/>
-      <c r="AA37" s="8"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="7"/>
+      <c r="AA37" s="7"/>
     </row>
     <row r="38">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="8"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="8"/>
-      <c r="X38" s="8"/>
-      <c r="Y38" s="8"/>
-      <c r="Z38" s="8"/>
-      <c r="AA38" s="8"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="7"/>
     </row>
     <row r="39">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="8"/>
-      <c r="U39" s="8"/>
-      <c r="V39" s="8"/>
-      <c r="W39" s="8"/>
-      <c r="X39" s="8"/>
-      <c r="Y39" s="8"/>
-      <c r="Z39" s="8"/>
-      <c r="AA39" s="8"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="7"/>
     </row>
     <row r="40">
-      <c r="A40" s="9"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="9" t="s">
+      <c r="A40" s="8"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="8"/>
-      <c r="S40" s="8"/>
-      <c r="T40" s="8"/>
-      <c r="U40" s="8"/>
-      <c r="V40" s="8"/>
-      <c r="W40" s="8"/>
-      <c r="X40" s="8"/>
-      <c r="Y40" s="8"/>
-      <c r="Z40" s="8"/>
-      <c r="AA40" s="8"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="7"/>
     </row>
     <row r="41">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="9" t="s">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="8"/>
-      <c r="S41" s="8"/>
-      <c r="T41" s="8"/>
-      <c r="U41" s="8"/>
-      <c r="V41" s="8"/>
-      <c r="W41" s="8"/>
-      <c r="X41" s="8"/>
-      <c r="Y41" s="8"/>
-      <c r="Z41" s="8"/>
-      <c r="AA41" s="8"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="7"/>
+      <c r="AA41" s="7"/>
     </row>
     <row r="42">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="8"/>
-      <c r="U42" s="8"/>
-      <c r="V42" s="8"/>
-      <c r="W42" s="8"/>
-      <c r="X42" s="8"/>
-      <c r="Y42" s="8"/>
-      <c r="Z42" s="8"/>
-      <c r="AA42" s="8"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="7"/>
     </row>
     <row r="43">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="8"/>
-      <c r="V43" s="8"/>
-      <c r="W43" s="8"/>
-      <c r="X43" s="8"/>
-      <c r="Y43" s="8"/>
-      <c r="Z43" s="8"/>
-      <c r="AA43" s="8"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="7"/>
+      <c r="AA43" s="7"/>
     </row>
     <row r="44">
-      <c r="H44" s="14"/>
+      <c r="H44" s="11"/>
     </row>
     <row r="45">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="24"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="8"/>
-      <c r="S45" s="8"/>
-      <c r="T45" s="8"/>
-      <c r="U45" s="8"/>
-      <c r="V45" s="8"/>
-      <c r="W45" s="8"/>
-      <c r="X45" s="8"/>
-      <c r="Y45" s="8"/>
-      <c r="Z45" s="8"/>
-      <c r="AA45" s="8"/>
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="7"/>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="7"/>
+      <c r="AA45" s="7"/>
     </row>
     <row r="46">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="8"/>
-      <c r="R46" s="8"/>
-      <c r="S46" s="8"/>
-      <c r="T46" s="8"/>
-      <c r="U46" s="8"/>
-      <c r="V46" s="8"/>
-      <c r="W46" s="8"/>
-      <c r="X46" s="8"/>
-      <c r="Y46" s="8"/>
-      <c r="Z46" s="8"/>
-      <c r="AA46" s="8"/>
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="7"/>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="7"/>
+      <c r="AA46" s="7"/>
     </row>
     <row r="47">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="8"/>
-      <c r="R47" s="8"/>
-      <c r="S47" s="8"/>
-      <c r="T47" s="8"/>
-      <c r="U47" s="8"/>
-      <c r="V47" s="8"/>
-      <c r="W47" s="8"/>
-      <c r="X47" s="8"/>
-      <c r="Y47" s="8"/>
-      <c r="Z47" s="8"/>
-      <c r="AA47" s="8"/>
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7"/>
+      <c r="AA47" s="7"/>
     </row>
     <row r="48">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="8"/>
-      <c r="Q48" s="8"/>
-      <c r="R48" s="8"/>
-      <c r="S48" s="8"/>
-      <c r="T48" s="8"/>
-      <c r="U48" s="8"/>
-      <c r="V48" s="8"/>
-      <c r="W48" s="8"/>
-      <c r="X48" s="8"/>
-      <c r="Y48" s="8"/>
-      <c r="Z48" s="8"/>
-      <c r="AA48" s="8"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="7"/>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="7"/>
+      <c r="AA48" s="7"/>
     </row>
     <row r="49">
-      <c r="H49" s="14"/>
+      <c r="H49" s="11"/>
     </row>
     <row r="50">
-      <c r="H50" s="14"/>
+      <c r="H50" s="11"/>
     </row>
     <row r="51">
-      <c r="H51" s="14"/>
+      <c r="H51" s="11"/>
     </row>
     <row r="52">
-      <c r="H52" s="14"/>
+      <c r="H52" s="11"/>
     </row>
     <row r="53">
-      <c r="H53" s="14"/>
+      <c r="H53" s="11"/>
     </row>
     <row r="54">
-      <c r="H54" s="14"/>
+      <c r="H54" s="11"/>
     </row>
     <row r="55">
-      <c r="H55" s="14"/>
+      <c r="H55" s="11"/>
     </row>
     <row r="56">
-      <c r="H56" s="14"/>
+      <c r="H56" s="11"/>
     </row>
     <row r="57">
-      <c r="H57" s="14"/>
+      <c r="H57" s="11"/>
     </row>
     <row r="58">
-      <c r="H58" s="14"/>
+      <c r="H58" s="11"/>
     </row>
     <row r="59">
-      <c r="H59" s="14"/>
+      <c r="H59" s="11"/>
     </row>
     <row r="60">
-      <c r="H60" s="14"/>
+      <c r="H60" s="11"/>
     </row>
     <row r="61">
-      <c r="H61" s="14"/>
+      <c r="H61" s="11"/>
     </row>
     <row r="62">
-      <c r="H62" s="14"/>
+      <c r="H62" s="11"/>
     </row>
     <row r="63">
-      <c r="H63" s="14"/>
+      <c r="H63" s="11"/>
     </row>
     <row r="64">
-      <c r="H64" s="14"/>
+      <c r="H64" s="11"/>
     </row>
     <row r="65">
-      <c r="H65" s="14"/>
+      <c r="H65" s="11"/>
     </row>
     <row r="66">
-      <c r="H66" s="14"/>
+      <c r="H66" s="11"/>
     </row>
     <row r="67">
-      <c r="H67" s="14"/>
+      <c r="H67" s="11"/>
     </row>
     <row r="68">
-      <c r="H68" s="14"/>
+      <c r="H68" s="11"/>
     </row>
     <row r="69">
-      <c r="H69" s="14"/>
+      <c r="H69" s="11"/>
     </row>
     <row r="70">
-      <c r="H70" s="14"/>
+      <c r="H70" s="11"/>
     </row>
     <row r="71">
-      <c r="H71" s="14"/>
+      <c r="H71" s="11"/>
     </row>
     <row r="72">
-      <c r="H72" s="14"/>
+      <c r="H72" s="11"/>
     </row>
     <row r="73">
-      <c r="H73" s="14"/>
+      <c r="H73" s="11"/>
     </row>
     <row r="74">
-      <c r="H74" s="14"/>
+      <c r="H74" s="11"/>
     </row>
     <row r="75">
-      <c r="H75" s="14"/>
+      <c r="H75" s="11"/>
     </row>
     <row r="76">
-      <c r="H76" s="14"/>
+      <c r="H76" s="11"/>
     </row>
     <row r="77">
-      <c r="H77" s="14"/>
+      <c r="H77" s="11"/>
     </row>
     <row r="78">
-      <c r="H78" s="14"/>
+      <c r="H78" s="11"/>
     </row>
     <row r="79">
-      <c r="H79" s="14"/>
+      <c r="H79" s="11"/>
     </row>
     <row r="80">
-      <c r="H80" s="14"/>
+      <c r="H80" s="11"/>
     </row>
     <row r="81">
-      <c r="H81" s="14"/>
+      <c r="H81" s="11"/>
     </row>
     <row r="82">
-      <c r="H82" s="14"/>
+      <c r="H82" s="11"/>
     </row>
     <row r="83">
-      <c r="H83" s="14"/>
+      <c r="H83" s="11"/>
     </row>
     <row r="84">
-      <c r="H84" s="14"/>
+      <c r="H84" s="11"/>
     </row>
     <row r="85">
-      <c r="H85" s="14"/>
+      <c r="H85" s="11"/>
     </row>
     <row r="86">
-      <c r="H86" s="14"/>
+      <c r="H86" s="11"/>
     </row>
     <row r="87">
-      <c r="H87" s="14"/>
+      <c r="H87" s="11"/>
     </row>
     <row r="88">
-      <c r="H88" s="14"/>
+      <c r="H88" s="11"/>
     </row>
     <row r="89">
-      <c r="H89" s="14"/>
+      <c r="H89" s="11"/>
     </row>
     <row r="90">
-      <c r="H90" s="14"/>
+      <c r="H90" s="11"/>
     </row>
     <row r="91">
-      <c r="H91" s="14"/>
+      <c r="H91" s="11"/>
     </row>
     <row r="92">
-      <c r="H92" s="14"/>
+      <c r="H92" s="11"/>
     </row>
     <row r="93">
-      <c r="H93" s="14"/>
+      <c r="H93" s="11"/>
     </row>
     <row r="94">
-      <c r="H94" s="14"/>
+      <c r="H94" s="11"/>
     </row>
     <row r="95">
-      <c r="H95" s="14"/>
+      <c r="H95" s="11"/>
     </row>
     <row r="96">
-      <c r="H96" s="14"/>
+      <c r="H96" s="11"/>
     </row>
     <row r="97">
-      <c r="H97" s="14"/>
+      <c r="H97" s="11"/>
     </row>
     <row r="98">
-      <c r="H98" s="14"/>
+      <c r="H98" s="11"/>
     </row>
     <row r="99">
-      <c r="H99" s="14"/>
+      <c r="H99" s="11"/>
     </row>
     <row r="100">
-      <c r="H100" s="14"/>
+      <c r="H100" s="11"/>
     </row>
     <row r="101">
-      <c r="H101" s="14"/>
+      <c r="H101" s="11"/>
     </row>
     <row r="102">
-      <c r="H102" s="14"/>
+      <c r="H102" s="11"/>
     </row>
     <row r="103">
-      <c r="H103" s="14"/>
+      <c r="H103" s="11"/>
     </row>
     <row r="104">
-      <c r="H104" s="14"/>
+      <c r="H104" s="11"/>
     </row>
     <row r="105">
-      <c r="H105" s="14"/>
+      <c r="H105" s="11"/>
     </row>
     <row r="106">
-      <c r="H106" s="14"/>
+      <c r="H106" s="11"/>
     </row>
     <row r="107">
-      <c r="H107" s="14"/>
+      <c r="H107" s="11"/>
     </row>
     <row r="108">
-      <c r="H108" s="14"/>
+      <c r="H108" s="11"/>
     </row>
     <row r="109">
-      <c r="H109" s="14"/>
+      <c r="H109" s="11"/>
     </row>
     <row r="110">
-      <c r="H110" s="14"/>
+      <c r="H110" s="11"/>
     </row>
     <row r="111">
-      <c r="H111" s="14"/>
+      <c r="H111" s="11"/>
     </row>
     <row r="112">
-      <c r="H112" s="14"/>
+      <c r="H112" s="11"/>
     </row>
     <row r="113">
-      <c r="H113" s="14"/>
+      <c r="H113" s="11"/>
     </row>
     <row r="114">
-      <c r="H114" s="14"/>
+      <c r="H114" s="11"/>
     </row>
     <row r="115">
-      <c r="H115" s="14"/>
+      <c r="H115" s="11"/>
     </row>
     <row r="116">
-      <c r="H116" s="14"/>
+      <c r="H116" s="11"/>
     </row>
     <row r="117">
-      <c r="H117" s="14"/>
+      <c r="H117" s="11"/>
     </row>
     <row r="118">
-      <c r="H118" s="14"/>
+      <c r="H118" s="11"/>
     </row>
     <row r="119">
-      <c r="H119" s="14"/>
+      <c r="H119" s="11"/>
     </row>
     <row r="120">
-      <c r="H120" s="14"/>
+      <c r="H120" s="11"/>
     </row>
     <row r="121">
-      <c r="H121" s="14"/>
+      <c r="H121" s="11"/>
     </row>
     <row r="122">
-      <c r="H122" s="14"/>
+      <c r="H122" s="11"/>
     </row>
     <row r="123">
-      <c r="H123" s="14"/>
+      <c r="H123" s="11"/>
     </row>
     <row r="124">
-      <c r="H124" s="14"/>
+      <c r="H124" s="11"/>
     </row>
     <row r="125">
-      <c r="H125" s="14"/>
+      <c r="H125" s="11"/>
     </row>
     <row r="126">
-      <c r="H126" s="14"/>
+      <c r="H126" s="11"/>
     </row>
     <row r="127">
-      <c r="H127" s="14"/>
+      <c r="H127" s="11"/>
     </row>
     <row r="128">
-      <c r="H128" s="14"/>
+      <c r="H128" s="11"/>
     </row>
     <row r="129">
-      <c r="H129" s="14"/>
+      <c r="H129" s="11"/>
     </row>
     <row r="130">
-      <c r="H130" s="14"/>
+      <c r="H130" s="11"/>
     </row>
     <row r="131">
-      <c r="H131" s="14"/>
+      <c r="H131" s="11"/>
     </row>
     <row r="132">
-      <c r="H132" s="14"/>
+      <c r="H132" s="11"/>
     </row>
     <row r="133">
-      <c r="H133" s="14"/>
+      <c r="H133" s="11"/>
     </row>
     <row r="134">
-      <c r="H134" s="14"/>
+      <c r="H134" s="11"/>
     </row>
     <row r="135">
-      <c r="H135" s="14"/>
+      <c r="H135" s="11"/>
     </row>
     <row r="136">
-      <c r="H136" s="14"/>
+      <c r="H136" s="11"/>
     </row>
     <row r="137">
-      <c r="H137" s="14"/>
+      <c r="H137" s="11"/>
     </row>
     <row r="138">
-      <c r="H138" s="14"/>
+      <c r="H138" s="11"/>
     </row>
     <row r="139">
-      <c r="H139" s="14"/>
+      <c r="H139" s="11"/>
     </row>
     <row r="140">
-      <c r="H140" s="14"/>
+      <c r="H140" s="11"/>
     </row>
     <row r="141">
-      <c r="H141" s="14"/>
+      <c r="H141" s="11"/>
     </row>
     <row r="142">
-      <c r="H142" s="14"/>
+      <c r="H142" s="11"/>
     </row>
     <row r="143">
-      <c r="H143" s="14"/>
+      <c r="H143" s="11"/>
     </row>
     <row r="144">
-      <c r="H144" s="14"/>
+      <c r="H144" s="11"/>
     </row>
     <row r="145">
-      <c r="H145" s="14"/>
+      <c r="H145" s="11"/>
     </row>
     <row r="146">
-      <c r="H146" s="14"/>
+      <c r="H146" s="11"/>
     </row>
     <row r="147">
-      <c r="H147" s="14"/>
+      <c r="H147" s="11"/>
     </row>
     <row r="148">
-      <c r="H148" s="14"/>
+      <c r="H148" s="11"/>
     </row>
     <row r="149">
-      <c r="H149" s="14"/>
+      <c r="H149" s="11"/>
     </row>
     <row r="150">
-      <c r="H150" s="14"/>
+      <c r="H150" s="11"/>
     </row>
     <row r="151">
-      <c r="H151" s="14"/>
+      <c r="H151" s="11"/>
     </row>
     <row r="152">
-      <c r="H152" s="14"/>
+      <c r="H152" s="11"/>
     </row>
     <row r="153">
-      <c r="H153" s="14"/>
+      <c r="H153" s="11"/>
     </row>
     <row r="154">
-      <c r="H154" s="14"/>
+      <c r="H154" s="11"/>
     </row>
     <row r="155">
-      <c r="H155" s="14"/>
+      <c r="H155" s="11"/>
     </row>
     <row r="156">
-      <c r="H156" s="14"/>
+      <c r="H156" s="11"/>
     </row>
     <row r="157">
-      <c r="H157" s="14"/>
+      <c r="H157" s="11"/>
     </row>
     <row r="158">
-      <c r="H158" s="14"/>
+      <c r="H158" s="11"/>
     </row>
     <row r="159">
-      <c r="H159" s="14"/>
+      <c r="H159" s="11"/>
     </row>
     <row r="160">
-      <c r="H160" s="14"/>
+      <c r="H160" s="11"/>
     </row>
     <row r="161">
-      <c r="H161" s="14"/>
+      <c r="H161" s="11"/>
     </row>
     <row r="162">
-      <c r="H162" s="14"/>
+      <c r="H162" s="11"/>
     </row>
     <row r="163">
-      <c r="H163" s="14"/>
+      <c r="H163" s="11"/>
     </row>
     <row r="164">
-      <c r="H164" s="14"/>
+      <c r="H164" s="11"/>
     </row>
     <row r="165">
-      <c r="H165" s="14"/>
+      <c r="H165" s="11"/>
     </row>
     <row r="166">
-      <c r="H166" s="14"/>
+      <c r="H166" s="11"/>
     </row>
     <row r="167">
-      <c r="H167" s="14"/>
+      <c r="H167" s="11"/>
     </row>
     <row r="168">
-      <c r="H168" s="14"/>
+      <c r="H168" s="11"/>
     </row>
     <row r="169">
-      <c r="H169" s="14"/>
+      <c r="H169" s="11"/>
     </row>
     <row r="170">
-      <c r="H170" s="14"/>
+      <c r="H170" s="11"/>
     </row>
     <row r="171">
-      <c r="H171" s="14"/>
+      <c r="H171" s="11"/>
     </row>
     <row r="172">
-      <c r="H172" s="14"/>
+      <c r="H172" s="11"/>
     </row>
     <row r="173">
-      <c r="H173" s="14"/>
+      <c r="H173" s="11"/>
     </row>
     <row r="174">
-      <c r="H174" s="14"/>
+      <c r="H174" s="11"/>
     </row>
     <row r="175">
-      <c r="H175" s="14"/>
+      <c r="H175" s="11"/>
     </row>
     <row r="176">
-      <c r="H176" s="14"/>
+      <c r="H176" s="11"/>
     </row>
     <row r="177">
-      <c r="H177" s="14"/>
+      <c r="H177" s="11"/>
     </row>
     <row r="178">
-      <c r="H178" s="14"/>
+      <c r="H178" s="11"/>
     </row>
     <row r="179">
-      <c r="H179" s="14"/>
+      <c r="H179" s="11"/>
     </row>
     <row r="180">
-      <c r="H180" s="14"/>
+      <c r="H180" s="11"/>
     </row>
     <row r="181">
-      <c r="H181" s="14"/>
+      <c r="H181" s="11"/>
     </row>
     <row r="182">
-      <c r="H182" s="14"/>
+      <c r="H182" s="11"/>
     </row>
     <row r="183">
-      <c r="H183" s="14"/>
+      <c r="H183" s="11"/>
     </row>
     <row r="184">
-      <c r="H184" s="14"/>
+      <c r="H184" s="11"/>
     </row>
     <row r="185">
-      <c r="H185" s="14"/>
+      <c r="H185" s="11"/>
     </row>
     <row r="186">
-      <c r="H186" s="14"/>
+      <c r="H186" s="11"/>
     </row>
     <row r="187">
-      <c r="H187" s="14"/>
+      <c r="H187" s="11"/>
     </row>
     <row r="188">
-      <c r="H188" s="14"/>
+      <c r="H188" s="11"/>
     </row>
     <row r="189">
-      <c r="H189" s="14"/>
+      <c r="H189" s="11"/>
     </row>
     <row r="190">
-      <c r="H190" s="14"/>
+      <c r="H190" s="11"/>
     </row>
     <row r="191">
-      <c r="H191" s="14"/>
+      <c r="H191" s="11"/>
     </row>
     <row r="192">
-      <c r="H192" s="14"/>
+      <c r="H192" s="11"/>
     </row>
     <row r="193">
-      <c r="H193" s="14"/>
+      <c r="H193" s="11"/>
     </row>
     <row r="194">
-      <c r="H194" s="14"/>
+      <c r="H194" s="11"/>
     </row>
     <row r="195">
-      <c r="H195" s="14"/>
+      <c r="H195" s="11"/>
     </row>
     <row r="196">
-      <c r="H196" s="14"/>
+      <c r="H196" s="11"/>
     </row>
     <row r="197">
-      <c r="H197" s="14"/>
+      <c r="H197" s="11"/>
     </row>
     <row r="198">
-      <c r="H198" s="14"/>
+      <c r="H198" s="11"/>
     </row>
     <row r="199">
-      <c r="H199" s="14"/>
+      <c r="H199" s="11"/>
     </row>
     <row r="200">
-      <c r="H200" s="14"/>
+      <c r="H200" s="11"/>
     </row>
     <row r="201">
-      <c r="H201" s="14"/>
+      <c r="H201" s="11"/>
     </row>
     <row r="202">
-      <c r="H202" s="14"/>
+      <c r="H202" s="11"/>
     </row>
     <row r="203">
-      <c r="H203" s="14"/>
+      <c r="H203" s="11"/>
     </row>
     <row r="204">
-      <c r="H204" s="14"/>
+      <c r="H204" s="11"/>
     </row>
     <row r="205">
-      <c r="H205" s="14"/>
+      <c r="H205" s="11"/>
     </row>
     <row r="206">
-      <c r="H206" s="14"/>
+      <c r="H206" s="11"/>
     </row>
     <row r="207">
-      <c r="H207" s="14"/>
+      <c r="H207" s="11"/>
     </row>
     <row r="208">
-      <c r="H208" s="14"/>
+      <c r="H208" s="11"/>
     </row>
     <row r="209">
-      <c r="H209" s="14"/>
+      <c r="H209" s="11"/>
     </row>
     <row r="210">
-      <c r="H210" s="14"/>
+      <c r="H210" s="11"/>
     </row>
     <row r="211">
-      <c r="H211" s="14"/>
+      <c r="H211" s="11"/>
     </row>
     <row r="212">
-      <c r="H212" s="14"/>
+      <c r="H212" s="11"/>
     </row>
     <row r="213">
-      <c r="H213" s="14"/>
+      <c r="H213" s="11"/>
     </row>
     <row r="214">
-      <c r="H214" s="14"/>
+      <c r="H214" s="11"/>
     </row>
     <row r="215">
-      <c r="H215" s="14"/>
+      <c r="H215" s="11"/>
     </row>
     <row r="216">
-      <c r="H216" s="14"/>
+      <c r="H216" s="11"/>
     </row>
     <row r="217">
-      <c r="H217" s="14"/>
+      <c r="H217" s="11"/>
     </row>
     <row r="218">
-      <c r="H218" s="14"/>
+      <c r="H218" s="11"/>
     </row>
     <row r="219">
-      <c r="H219" s="14"/>
+      <c r="H219" s="11"/>
     </row>
     <row r="220">
-      <c r="H220" s="14"/>
+      <c r="H220" s="11"/>
     </row>
     <row r="221">
-      <c r="H221" s="14"/>
+      <c r="H221" s="11"/>
     </row>
     <row r="222">
-      <c r="H222" s="14"/>
+      <c r="H222" s="11"/>
     </row>
     <row r="223">
-      <c r="H223" s="14"/>
+      <c r="H223" s="11"/>
     </row>
     <row r="224">
-      <c r="H224" s="14"/>
+      <c r="H224" s="11"/>
     </row>
     <row r="225">
-      <c r="H225" s="14"/>
+      <c r="H225" s="11"/>
     </row>
     <row r="226">
-      <c r="H226" s="14"/>
+      <c r="H226" s="11"/>
     </row>
     <row r="227">
-      <c r="H227" s="14"/>
+      <c r="H227" s="11"/>
     </row>
     <row r="228">
-      <c r="H228" s="14"/>
+      <c r="H228" s="11"/>
     </row>
     <row r="229">
-      <c r="H229" s="14"/>
+      <c r="H229" s="11"/>
     </row>
     <row r="230">
-      <c r="H230" s="14"/>
+      <c r="H230" s="11"/>
     </row>
     <row r="231">
-      <c r="H231" s="14"/>
+      <c r="H231" s="11"/>
     </row>
     <row r="232">
-      <c r="H232" s="14"/>
+      <c r="H232" s="11"/>
     </row>
     <row r="233">
-      <c r="H233" s="14"/>
+      <c r="H233" s="11"/>
     </row>
     <row r="234">
-      <c r="H234" s="14"/>
+      <c r="H234" s="11"/>
     </row>
     <row r="235">
-      <c r="H235" s="14"/>
+      <c r="H235" s="11"/>
     </row>
     <row r="236">
-      <c r="H236" s="14"/>
+      <c r="H236" s="11"/>
     </row>
     <row r="237">
-      <c r="H237" s="14"/>
+      <c r="H237" s="11"/>
     </row>
     <row r="238">
-      <c r="H238" s="14"/>
+      <c r="H238" s="11"/>
     </row>
     <row r="239">
-      <c r="H239" s="14"/>
+      <c r="H239" s="11"/>
     </row>
     <row r="240">
-      <c r="H240" s="14"/>
+      <c r="H240" s="11"/>
     </row>
     <row r="241">
-      <c r="H241" s="14"/>
+      <c r="H241" s="11"/>
     </row>
     <row r="242">
-      <c r="H242" s="14"/>
+      <c r="H242" s="11"/>
     </row>
     <row r="243">
-      <c r="H243" s="14"/>
+      <c r="H243" s="11"/>
     </row>
     <row r="244">
-      <c r="H244" s="14"/>
+      <c r="H244" s="11"/>
     </row>
     <row r="245">
-      <c r="H245" s="14"/>
+      <c r="H245" s="11"/>
     </row>
     <row r="246">
-      <c r="H246" s="14"/>
+      <c r="H246" s="11"/>
     </row>
     <row r="247">
-      <c r="H247" s="14"/>
+      <c r="H247" s="11"/>
     </row>
     <row r="248">
-      <c r="H248" s="14"/>
+      <c r="H248" s="11"/>
     </row>
     <row r="249">
-      <c r="H249" s="14"/>
+      <c r="H249" s="11"/>
     </row>
     <row r="250">
-      <c r="H250" s="14"/>
+      <c r="H250" s="11"/>
     </row>
     <row r="251">
-      <c r="H251" s="14"/>
+      <c r="H251" s="11"/>
     </row>
     <row r="252">
-      <c r="H252" s="14"/>
+      <c r="H252" s="11"/>
     </row>
     <row r="253">
-      <c r="H253" s="14"/>
+      <c r="H253" s="11"/>
     </row>
     <row r="254">
-      <c r="H254" s="14"/>
+      <c r="H254" s="11"/>
     </row>
     <row r="255">
-      <c r="H255" s="14"/>
+      <c r="H255" s="11"/>
     </row>
     <row r="256">
-      <c r="H256" s="14"/>
+      <c r="H256" s="11"/>
     </row>
     <row r="257">
-      <c r="H257" s="14"/>
+      <c r="H257" s="11"/>
     </row>
     <row r="258">
-      <c r="H258" s="14"/>
+      <c r="H258" s="11"/>
     </row>
     <row r="259">
-      <c r="H259" s="14"/>
+      <c r="H259" s="11"/>
     </row>
     <row r="260">
-      <c r="H260" s="14"/>
+      <c r="H260" s="11"/>
     </row>
     <row r="261">
-      <c r="H261" s="14"/>
+      <c r="H261" s="11"/>
     </row>
     <row r="262">
-      <c r="H262" s="14"/>
+      <c r="H262" s="11"/>
     </row>
     <row r="263">
-      <c r="H263" s="14"/>
+      <c r="H263" s="11"/>
     </row>
     <row r="264">
-      <c r="H264" s="14"/>
+      <c r="H264" s="11"/>
     </row>
     <row r="265">
-      <c r="H265" s="14"/>
+      <c r="H265" s="11"/>
     </row>
     <row r="266">
-      <c r="H266" s="14"/>
+      <c r="H266" s="11"/>
     </row>
     <row r="267">
-      <c r="H267" s="14"/>
+      <c r="H267" s="11"/>
     </row>
     <row r="268">
-      <c r="H268" s="14"/>
+      <c r="H268" s="11"/>
     </row>
     <row r="269">
-      <c r="H269" s="14"/>
+      <c r="H269" s="11"/>
     </row>
     <row r="270">
-      <c r="H270" s="14"/>
+      <c r="H270" s="11"/>
     </row>
     <row r="271">
-      <c r="H271" s="14"/>
+      <c r="H271" s="11"/>
     </row>
     <row r="272">
-      <c r="H272" s="14"/>
+      <c r="H272" s="11"/>
     </row>
     <row r="273">
-      <c r="H273" s="14"/>
+      <c r="H273" s="11"/>
     </row>
     <row r="274">
-      <c r="H274" s="14"/>
+      <c r="H274" s="11"/>
     </row>
     <row r="275">
-      <c r="H275" s="14"/>
+      <c r="H275" s="11"/>
     </row>
     <row r="276">
-      <c r="H276" s="14"/>
+      <c r="H276" s="11"/>
     </row>
     <row r="277">
-      <c r="H277" s="14"/>
+      <c r="H277" s="11"/>
     </row>
     <row r="278">
-      <c r="H278" s="14"/>
+      <c r="H278" s="11"/>
     </row>
     <row r="279">
-      <c r="H279" s="14"/>
+      <c r="H279" s="11"/>
     </row>
     <row r="280">
-      <c r="H280" s="14"/>
+      <c r="H280" s="11"/>
     </row>
     <row r="281">
-      <c r="H281" s="14"/>
+      <c r="H281" s="11"/>
     </row>
     <row r="282">
-      <c r="H282" s="14"/>
+      <c r="H282" s="11"/>
     </row>
     <row r="283">
-      <c r="H283" s="14"/>
+      <c r="H283" s="11"/>
     </row>
     <row r="284">
-      <c r="H284" s="14"/>
+      <c r="H284" s="11"/>
     </row>
     <row r="285">
-      <c r="H285" s="14"/>
+      <c r="H285" s="11"/>
     </row>
     <row r="286">
-      <c r="H286" s="14"/>
+      <c r="H286" s="11"/>
     </row>
     <row r="287">
-      <c r="H287" s="14"/>
+      <c r="H287" s="11"/>
     </row>
     <row r="288">
-      <c r="H288" s="14"/>
+      <c r="H288" s="11"/>
     </row>
     <row r="289">
-      <c r="H289" s="14"/>
+      <c r="H289" s="11"/>
     </row>
     <row r="290">
-      <c r="H290" s="14"/>
+      <c r="H290" s="11"/>
     </row>
     <row r="291">
-      <c r="H291" s="14"/>
+      <c r="H291" s="11"/>
     </row>
     <row r="292">
-      <c r="H292" s="14"/>
+      <c r="H292" s="11"/>
     </row>
     <row r="293">
-      <c r="H293" s="14"/>
+      <c r="H293" s="11"/>
     </row>
     <row r="294">
-      <c r="H294" s="14"/>
+      <c r="H294" s="11"/>
     </row>
     <row r="295">
-      <c r="H295" s="14"/>
+      <c r="H295" s="11"/>
     </row>
     <row r="296">
-      <c r="H296" s="14"/>
+      <c r="H296" s="11"/>
     </row>
     <row r="297">
-      <c r="H297" s="14"/>
+      <c r="H297" s="11"/>
     </row>
     <row r="298">
-      <c r="H298" s="14"/>
+      <c r="H298" s="11"/>
     </row>
     <row r="299">
-      <c r="H299" s="14"/>
+      <c r="H299" s="11"/>
     </row>
     <row r="300">
-      <c r="H300" s="14"/>
+      <c r="H300" s="11"/>
     </row>
     <row r="301">
-      <c r="H301" s="14"/>
+      <c r="H301" s="11"/>
     </row>
     <row r="302">
-      <c r="H302" s="14"/>
+      <c r="H302" s="11"/>
     </row>
     <row r="303">
-      <c r="H303" s="14"/>
+      <c r="H303" s="11"/>
     </row>
     <row r="304">
-      <c r="H304" s="14"/>
+      <c r="H304" s="11"/>
     </row>
     <row r="305">
-      <c r="H305" s="14"/>
+      <c r="H305" s="11"/>
     </row>
     <row r="306">
-      <c r="H306" s="14"/>
+      <c r="H306" s="11"/>
     </row>
     <row r="307">
-      <c r="H307" s="14"/>
+      <c r="H307" s="11"/>
     </row>
     <row r="308">
-      <c r="H308" s="14"/>
+      <c r="H308" s="11"/>
     </row>
     <row r="309">
-      <c r="H309" s="14"/>
+      <c r="H309" s="11"/>
     </row>
     <row r="310">
-      <c r="H310" s="14"/>
+      <c r="H310" s="11"/>
     </row>
     <row r="311">
-      <c r="H311" s="14"/>
+      <c r="H311" s="11"/>
     </row>
     <row r="312">
-      <c r="H312" s="14"/>
+      <c r="H312" s="11"/>
     </row>
     <row r="313">
-      <c r="H313" s="14"/>
+      <c r="H313" s="11"/>
     </row>
     <row r="314">
-      <c r="H314" s="14"/>
+      <c r="H314" s="11"/>
     </row>
     <row r="315">
-      <c r="H315" s="14"/>
+      <c r="H315" s="11"/>
     </row>
     <row r="316">
-      <c r="H316" s="14"/>
+      <c r="H316" s="11"/>
     </row>
     <row r="317">
-      <c r="H317" s="14"/>
+      <c r="H317" s="11"/>
     </row>
     <row r="318">
-      <c r="H318" s="14"/>
+      <c r="H318" s="11"/>
     </row>
     <row r="319">
-      <c r="H319" s="14"/>
+      <c r="H319" s="11"/>
     </row>
     <row r="320">
-      <c r="H320" s="14"/>
+      <c r="H320" s="11"/>
     </row>
     <row r="321">
-      <c r="H321" s="14"/>
+      <c r="H321" s="11"/>
     </row>
     <row r="322">
-      <c r="H322" s="14"/>
+      <c r="H322" s="11"/>
     </row>
     <row r="323">
-      <c r="H323" s="14"/>
+      <c r="H323" s="11"/>
     </row>
     <row r="324">
-      <c r="H324" s="14"/>
+      <c r="H324" s="11"/>
     </row>
     <row r="325">
-      <c r="H325" s="14"/>
+      <c r="H325" s="11"/>
     </row>
     <row r="326">
-      <c r="H326" s="14"/>
+      <c r="H326" s="11"/>
     </row>
     <row r="327">
-      <c r="H327" s="14"/>
+      <c r="H327" s="11"/>
     </row>
     <row r="328">
-      <c r="H328" s="14"/>
+      <c r="H328" s="11"/>
     </row>
     <row r="329">
-      <c r="H329" s="14"/>
+      <c r="H329" s="11"/>
     </row>
     <row r="330">
-      <c r="H330" s="14"/>
+      <c r="H330" s="11"/>
     </row>
     <row r="331">
-      <c r="H331" s="14"/>
+      <c r="H331" s="11"/>
     </row>
     <row r="332">
-      <c r="H332" s="14"/>
+      <c r="H332" s="11"/>
     </row>
     <row r="333">
-      <c r="H333" s="14"/>
+      <c r="H333" s="11"/>
     </row>
     <row r="334">
-      <c r="H334" s="14"/>
+      <c r="H334" s="11"/>
     </row>
     <row r="335">
-      <c r="H335" s="14"/>
+      <c r="H335" s="11"/>
     </row>
     <row r="336">
-      <c r="H336" s="14"/>
+      <c r="H336" s="11"/>
     </row>
     <row r="337">
-      <c r="H337" s="14"/>
+      <c r="H337" s="11"/>
     </row>
     <row r="338">
-      <c r="H338" s="14"/>
+      <c r="H338" s="11"/>
     </row>
     <row r="339">
-      <c r="H339" s="14"/>
+      <c r="H339" s="11"/>
     </row>
     <row r="340">
-      <c r="H340" s="14"/>
+      <c r="H340" s="11"/>
     </row>
     <row r="341">
-      <c r="H341" s="14"/>
+      <c r="H341" s="11"/>
     </row>
     <row r="342">
-      <c r="H342" s="14"/>
+      <c r="H342" s="11"/>
     </row>
     <row r="343">
-      <c r="H343" s="14"/>
+      <c r="H343" s="11"/>
     </row>
     <row r="344">
-      <c r="H344" s="14"/>
+      <c r="H344" s="11"/>
     </row>
     <row r="345">
-      <c r="H345" s="14"/>
+      <c r="H345" s="11"/>
     </row>
     <row r="346">
-      <c r="H346" s="14"/>
+      <c r="H346" s="11"/>
     </row>
     <row r="347">
-      <c r="H347" s="14"/>
+      <c r="H347" s="11"/>
     </row>
     <row r="348">
-      <c r="H348" s="14"/>
+      <c r="H348" s="11"/>
     </row>
     <row r="349">
-      <c r="H349" s="14"/>
+      <c r="H349" s="11"/>
     </row>
     <row r="350">
-      <c r="H350" s="14"/>
+      <c r="H350" s="11"/>
     </row>
     <row r="351">
-      <c r="H351" s="14"/>
+      <c r="H351" s="11"/>
     </row>
     <row r="352">
-      <c r="H352" s="14"/>
+      <c r="H352" s="11"/>
     </row>
     <row r="353">
-      <c r="H353" s="14"/>
+      <c r="H353" s="11"/>
     </row>
     <row r="354">
-      <c r="H354" s="14"/>
+      <c r="H354" s="11"/>
     </row>
     <row r="355">
-      <c r="H355" s="14"/>
+      <c r="H355" s="11"/>
     </row>
     <row r="356">
-      <c r="H356" s="14"/>
+      <c r="H356" s="11"/>
     </row>
     <row r="357">
-      <c r="H357" s="14"/>
+      <c r="H357" s="11"/>
     </row>
     <row r="358">
-      <c r="H358" s="14"/>
+      <c r="H358" s="11"/>
     </row>
     <row r="359">
-      <c r="H359" s="14"/>
+      <c r="H359" s="11"/>
     </row>
     <row r="360">
-      <c r="H360" s="14"/>
+      <c r="H360" s="11"/>
     </row>
     <row r="361">
-      <c r="H361" s="14"/>
+      <c r="H361" s="11"/>
     </row>
     <row r="362">
-      <c r="H362" s="14"/>
+      <c r="H362" s="11"/>
     </row>
     <row r="363">
-      <c r="H363" s="14"/>
+      <c r="H363" s="11"/>
     </row>
     <row r="364">
-      <c r="H364" s="14"/>
+      <c r="H364" s="11"/>
     </row>
     <row r="365">
-      <c r="H365" s="14"/>
+      <c r="H365" s="11"/>
     </row>
     <row r="366">
-      <c r="H366" s="14"/>
+      <c r="H366" s="11"/>
     </row>
     <row r="367">
-      <c r="H367" s="14"/>
+      <c r="H367" s="11"/>
     </row>
     <row r="368">
-      <c r="H368" s="14"/>
+      <c r="H368" s="11"/>
     </row>
     <row r="369">
-      <c r="H369" s="14"/>
+      <c r="H369" s="11"/>
     </row>
     <row r="370">
-      <c r="H370" s="14"/>
+      <c r="H370" s="11"/>
     </row>
     <row r="371">
-      <c r="H371" s="14"/>
+      <c r="H371" s="11"/>
     </row>
     <row r="372">
-      <c r="H372" s="14"/>
+      <c r="H372" s="11"/>
     </row>
     <row r="373">
-      <c r="H373" s="14"/>
+      <c r="H373" s="11"/>
     </row>
     <row r="374">
-      <c r="H374" s="14"/>
+      <c r="H374" s="11"/>
     </row>
     <row r="375">
-      <c r="H375" s="14"/>
+      <c r="H375" s="11"/>
     </row>
     <row r="376">
-      <c r="H376" s="14"/>
+      <c r="H376" s="11"/>
     </row>
     <row r="377">
-      <c r="H377" s="14"/>
+      <c r="H377" s="11"/>
     </row>
     <row r="378">
-      <c r="H378" s="14"/>
+      <c r="H378" s="11"/>
     </row>
     <row r="379">
-      <c r="H379" s="14"/>
+      <c r="H379" s="11"/>
     </row>
     <row r="380">
-      <c r="H380" s="14"/>
+      <c r="H380" s="11"/>
     </row>
     <row r="381">
-      <c r="H381" s="14"/>
+      <c r="H381" s="11"/>
     </row>
     <row r="382">
-      <c r="H382" s="14"/>
+      <c r="H382" s="11"/>
     </row>
     <row r="383">
-      <c r="H383" s="14"/>
+      <c r="H383" s="11"/>
     </row>
     <row r="384">
-      <c r="H384" s="14"/>
+      <c r="H384" s="11"/>
     </row>
     <row r="385">
-      <c r="H385" s="14"/>
+      <c r="H385" s="11"/>
     </row>
     <row r="386">
-      <c r="H386" s="14"/>
+      <c r="H386" s="11"/>
     </row>
     <row r="387">
-      <c r="H387" s="14"/>
+      <c r="H387" s="11"/>
     </row>
     <row r="388">
-      <c r="H388" s="14"/>
+      <c r="H388" s="11"/>
     </row>
     <row r="389">
-      <c r="H389" s="14"/>
+      <c r="H389" s="11"/>
     </row>
     <row r="390">
-      <c r="H390" s="14"/>
+      <c r="H390" s="11"/>
     </row>
     <row r="391">
-      <c r="H391" s="14"/>
+      <c r="H391" s="11"/>
     </row>
     <row r="392">
-      <c r="H392" s="14"/>
+      <c r="H392" s="11"/>
     </row>
     <row r="393">
-      <c r="H393" s="14"/>
+      <c r="H393" s="11"/>
     </row>
     <row r="394">
-      <c r="H394" s="14"/>
+      <c r="H394" s="11"/>
     </row>
     <row r="395">
-      <c r="H395" s="14"/>
+      <c r="H395" s="11"/>
     </row>
     <row r="396">
-      <c r="H396" s="14"/>
+      <c r="H396" s="11"/>
     </row>
     <row r="397">
-      <c r="H397" s="14"/>
+      <c r="H397" s="11"/>
     </row>
     <row r="398">
-      <c r="H398" s="14"/>
+      <c r="H398" s="11"/>
     </row>
     <row r="399">
-      <c r="H399" s="14"/>
+      <c r="H399" s="11"/>
     </row>
     <row r="400">
-      <c r="H400" s="14"/>
+      <c r="H400" s="11"/>
     </row>
     <row r="401">
-      <c r="H401" s="14"/>
+      <c r="H401" s="11"/>
     </row>
     <row r="402">
-      <c r="H402" s="14"/>
+      <c r="H402" s="11"/>
     </row>
     <row r="403">
-      <c r="H403" s="14"/>
+      <c r="H403" s="11"/>
     </row>
     <row r="404">
-      <c r="H404" s="14"/>
+      <c r="H404" s="11"/>
     </row>
     <row r="405">
-      <c r="H405" s="14"/>
+      <c r="H405" s="11"/>
     </row>
     <row r="406">
-      <c r="H406" s="14"/>
+      <c r="H406" s="11"/>
     </row>
     <row r="407">
-      <c r="H407" s="14"/>
+      <c r="H407" s="11"/>
     </row>
     <row r="408">
-      <c r="H408" s="14"/>
+      <c r="H408" s="11"/>
     </row>
     <row r="409">
-      <c r="H409" s="14"/>
+      <c r="H409" s="11"/>
     </row>
     <row r="410">
-      <c r="H410" s="14"/>
+      <c r="H410" s="11"/>
     </row>
     <row r="411">
-      <c r="H411" s="14"/>
+      <c r="H411" s="11"/>
     </row>
     <row r="412">
-      <c r="H412" s="14"/>
+      <c r="H412" s="11"/>
     </row>
     <row r="413">
-      <c r="H413" s="14"/>
+      <c r="H413" s="11"/>
     </row>
     <row r="414">
-      <c r="H414" s="14"/>
+      <c r="H414" s="11"/>
     </row>
     <row r="415">
-      <c r="H415" s="14"/>
+      <c r="H415" s="11"/>
     </row>
     <row r="416">
-      <c r="H416" s="14"/>
+      <c r="H416" s="11"/>
     </row>
     <row r="417">
-      <c r="H417" s="14"/>
+      <c r="H417" s="11"/>
     </row>
     <row r="418">
-      <c r="H418" s="14"/>
+      <c r="H418" s="11"/>
     </row>
     <row r="419">
-      <c r="H419" s="14"/>
+      <c r="H419" s="11"/>
     </row>
     <row r="420">
-      <c r="H420" s="14"/>
+      <c r="H420" s="11"/>
     </row>
     <row r="421">
-      <c r="H421" s="14"/>
+      <c r="H421" s="11"/>
     </row>
     <row r="422">
-      <c r="H422" s="14"/>
+      <c r="H422" s="11"/>
     </row>
     <row r="423">
-      <c r="H423" s="14"/>
+      <c r="H423" s="11"/>
     </row>
     <row r="424">
-      <c r="H424" s="14"/>
+      <c r="H424" s="11"/>
     </row>
     <row r="425">
-      <c r="H425" s="14"/>
+      <c r="H425" s="11"/>
     </row>
     <row r="426">
-      <c r="H426" s="14"/>
+      <c r="H426" s="11"/>
     </row>
     <row r="427">
-      <c r="H427" s="14"/>
+      <c r="H427" s="11"/>
     </row>
     <row r="428">
-      <c r="H428" s="14"/>
+      <c r="H428" s="11"/>
     </row>
     <row r="429">
-      <c r="H429" s="14"/>
+      <c r="H429" s="11"/>
     </row>
     <row r="430">
-      <c r="H430" s="14"/>
+      <c r="H430" s="11"/>
     </row>
     <row r="431">
-      <c r="H431" s="14"/>
+      <c r="H431" s="11"/>
     </row>
     <row r="432">
-      <c r="H432" s="14"/>
+      <c r="H432" s="11"/>
     </row>
     <row r="433">
-      <c r="H433" s="14"/>
+      <c r="H433" s="11"/>
     </row>
     <row r="434">
-      <c r="H434" s="14"/>
+      <c r="H434" s="11"/>
     </row>
     <row r="435">
-      <c r="H435" s="14"/>
+      <c r="H435" s="11"/>
     </row>
     <row r="436">
-      <c r="H436" s="14"/>
+      <c r="H436" s="11"/>
     </row>
     <row r="437">
-      <c r="H437" s="14"/>
+      <c r="H437" s="11"/>
     </row>
     <row r="438">
-      <c r="H438" s="14"/>
+      <c r="H438" s="11"/>
     </row>
     <row r="439">
-      <c r="H439" s="14"/>
+      <c r="H439" s="11"/>
     </row>
     <row r="440">
-      <c r="H440" s="14"/>
+      <c r="H440" s="11"/>
     </row>
     <row r="441">
-      <c r="H441" s="14"/>
+      <c r="H441" s="11"/>
     </row>
     <row r="442">
-      <c r="H442" s="14"/>
+      <c r="H442" s="11"/>
     </row>
     <row r="443">
-      <c r="H443" s="14"/>
+      <c r="H443" s="11"/>
     </row>
     <row r="444">
-      <c r="H444" s="14"/>
+      <c r="H444" s="11"/>
     </row>
     <row r="445">
-      <c r="H445" s="14"/>
+      <c r="H445" s="11"/>
     </row>
     <row r="446">
-      <c r="H446" s="14"/>
+      <c r="H446" s="11"/>
     </row>
     <row r="447">
-      <c r="H447" s="14"/>
+      <c r="H447" s="11"/>
     </row>
     <row r="448">
-      <c r="H448" s="14"/>
+      <c r="H448" s="11"/>
     </row>
     <row r="449">
-      <c r="H449" s="14"/>
+      <c r="H449" s="11"/>
     </row>
     <row r="450">
-      <c r="H450" s="14"/>
+      <c r="H450" s="11"/>
     </row>
     <row r="451">
-      <c r="H451" s="14"/>
+      <c r="H451" s="11"/>
     </row>
     <row r="452">
-      <c r="H452" s="14"/>
+      <c r="H452" s="11"/>
     </row>
     <row r="453">
-      <c r="H453" s="14"/>
+      <c r="H453" s="11"/>
     </row>
     <row r="454">
-      <c r="H454" s="14"/>
+      <c r="H454" s="11"/>
     </row>
     <row r="455">
-      <c r="H455" s="14"/>
+      <c r="H455" s="11"/>
     </row>
     <row r="456">
-      <c r="H456" s="14"/>
+      <c r="H456" s="11"/>
     </row>
     <row r="457">
-      <c r="H457" s="14"/>
+      <c r="H457" s="11"/>
     </row>
     <row r="458">
-      <c r="H458" s="14"/>
+      <c r="H458" s="11"/>
     </row>
     <row r="459">
-      <c r="H459" s="14"/>
+      <c r="H459" s="11"/>
     </row>
     <row r="460">
-      <c r="H460" s="14"/>
+      <c r="H460" s="11"/>
     </row>
     <row r="461">
-      <c r="H461" s="14"/>
+      <c r="H461" s="11"/>
     </row>
     <row r="462">
-      <c r="H462" s="14"/>
+      <c r="H462" s="11"/>
     </row>
     <row r="463">
-      <c r="H463" s="14"/>
+      <c r="H463" s="11"/>
     </row>
     <row r="464">
-      <c r="H464" s="14"/>
+      <c r="H464" s="11"/>
     </row>
     <row r="465">
-      <c r="H465" s="14"/>
+      <c r="H465" s="11"/>
     </row>
     <row r="466">
-      <c r="H466" s="14"/>
+      <c r="H466" s="11"/>
     </row>
     <row r="467">
-      <c r="H467" s="14"/>
+      <c r="H467" s="11"/>
     </row>
     <row r="468">
-      <c r="H468" s="14"/>
+      <c r="H468" s="11"/>
     </row>
     <row r="469">
-      <c r="H469" s="14"/>
+      <c r="H469" s="11"/>
     </row>
     <row r="470">
-      <c r="H470" s="14"/>
+      <c r="H470" s="11"/>
     </row>
     <row r="471">
-      <c r="H471" s="14"/>
+      <c r="H471" s="11"/>
     </row>
     <row r="472">
-      <c r="H472" s="14"/>
+      <c r="H472" s="11"/>
     </row>
     <row r="473">
-      <c r="H473" s="14"/>
+      <c r="H473" s="11"/>
     </row>
     <row r="474">
-      <c r="H474" s="14"/>
+      <c r="H474" s="11"/>
     </row>
     <row r="475">
-      <c r="H475" s="14"/>
+      <c r="H475" s="11"/>
     </row>
     <row r="476">
-      <c r="H476" s="14"/>
+      <c r="H476" s="11"/>
     </row>
     <row r="477">
-      <c r="H477" s="14"/>
+      <c r="H477" s="11"/>
     </row>
     <row r="478">
-      <c r="H478" s="14"/>
+      <c r="H478" s="11"/>
     </row>
     <row r="479">
-      <c r="H479" s="14"/>
+      <c r="H479" s="11"/>
     </row>
     <row r="480">
-      <c r="H480" s="14"/>
+      <c r="H480" s="11"/>
     </row>
     <row r="481">
-      <c r="H481" s="14"/>
+      <c r="H481" s="11"/>
     </row>
     <row r="482">
-      <c r="H482" s="14"/>
+      <c r="H482" s="11"/>
     </row>
     <row r="483">
-      <c r="H483" s="14"/>
+      <c r="H483" s="11"/>
     </row>
     <row r="484">
-      <c r="H484" s="14"/>
+      <c r="H484" s="11"/>
     </row>
     <row r="485">
-      <c r="H485" s="14"/>
+      <c r="H485" s="11"/>
     </row>
     <row r="486">
-      <c r="H486" s="14"/>
+      <c r="H486" s="11"/>
     </row>
     <row r="487">
-      <c r="H487" s="14"/>
+      <c r="H487" s="11"/>
     </row>
     <row r="488">
-      <c r="H488" s="14"/>
+      <c r="H488" s="11"/>
     </row>
     <row r="489">
-      <c r="H489" s="14"/>
+      <c r="H489" s="11"/>
     </row>
     <row r="490">
-      <c r="H490" s="14"/>
+      <c r="H490" s="11"/>
     </row>
     <row r="491">
-      <c r="H491" s="14"/>
+      <c r="H491" s="11"/>
     </row>
     <row r="492">
-      <c r="H492" s="14"/>
+      <c r="H492" s="11"/>
     </row>
     <row r="493">
-      <c r="H493" s="14"/>
+      <c r="H493" s="11"/>
     </row>
     <row r="494">
-      <c r="H494" s="14"/>
+      <c r="H494" s="11"/>
     </row>
     <row r="495">
-      <c r="H495" s="14"/>
+      <c r="H495" s="11"/>
     </row>
     <row r="496">
-      <c r="H496" s="14"/>
+      <c r="H496" s="11"/>
     </row>
     <row r="497">
-      <c r="H497" s="14"/>
+      <c r="H497" s="11"/>
     </row>
     <row r="498">
-      <c r="H498" s="14"/>
+      <c r="H498" s="11"/>
     </row>
     <row r="499">
-      <c r="H499" s="14"/>
+      <c r="H499" s="11"/>
     </row>
     <row r="500">
-      <c r="H500" s="14"/>
+      <c r="H500" s="11"/>
     </row>
     <row r="501">
-      <c r="H501" s="14"/>
+      <c r="H501" s="11"/>
     </row>
     <row r="502">
-      <c r="H502" s="14"/>
+      <c r="H502" s="11"/>
     </row>
     <row r="503">
-      <c r="H503" s="14"/>
+      <c r="H503" s="11"/>
     </row>
     <row r="504">
-      <c r="H504" s="14"/>
+      <c r="H504" s="11"/>
     </row>
     <row r="505">
-      <c r="H505" s="14"/>
+      <c r="H505" s="11"/>
     </row>
     <row r="506">
-      <c r="H506" s="14"/>
+      <c r="H506" s="11"/>
     </row>
     <row r="507">
-      <c r="H507" s="14"/>
+      <c r="H507" s="11"/>
     </row>
     <row r="508">
-      <c r="H508" s="14"/>
+      <c r="H508" s="11"/>
     </row>
     <row r="509">
-      <c r="H509" s="14"/>
+      <c r="H509" s="11"/>
     </row>
     <row r="510">
-      <c r="H510" s="14"/>
+      <c r="H510" s="11"/>
     </row>
     <row r="511">
-      <c r="H511" s="14"/>
+      <c r="H511" s="11"/>
     </row>
     <row r="512">
-      <c r="H512" s="14"/>
+      <c r="H512" s="11"/>
     </row>
     <row r="513">
-      <c r="H513" s="14"/>
+      <c r="H513" s="11"/>
     </row>
     <row r="514">
-      <c r="H514" s="14"/>
+      <c r="H514" s="11"/>
     </row>
     <row r="515">
-      <c r="H515" s="14"/>
+      <c r="H515" s="11"/>
     </row>
     <row r="516">
-      <c r="H516" s="14"/>
+      <c r="H516" s="11"/>
     </row>
     <row r="517">
-      <c r="H517" s="14"/>
+      <c r="H517" s="11"/>
     </row>
     <row r="518">
-      <c r="H518" s="14"/>
+      <c r="H518" s="11"/>
     </row>
     <row r="519">
-      <c r="H519" s="14"/>
+      <c r="H519" s="11"/>
     </row>
     <row r="520">
-      <c r="H520" s="14"/>
+      <c r="H520" s="11"/>
     </row>
     <row r="521">
-      <c r="H521" s="14"/>
+      <c r="H521" s="11"/>
     </row>
     <row r="522">
-      <c r="H522" s="14"/>
+      <c r="H522" s="11"/>
     </row>
     <row r="523">
-      <c r="H523" s="14"/>
+      <c r="H523" s="11"/>
     </row>
     <row r="524">
-      <c r="H524" s="14"/>
+      <c r="H524" s="11"/>
     </row>
     <row r="525">
-      <c r="H525" s="14"/>
+      <c r="H525" s="11"/>
     </row>
     <row r="526">
-      <c r="H526" s="14"/>
+      <c r="H526" s="11"/>
     </row>
     <row r="527">
-      <c r="H527" s="14"/>
+      <c r="H527" s="11"/>
     </row>
     <row r="528">
-      <c r="H528" s="14"/>
+      <c r="H528" s="11"/>
     </row>
     <row r="529">
-      <c r="H529" s="14"/>
+      <c r="H529" s="11"/>
     </row>
     <row r="530">
-      <c r="H530" s="14"/>
+      <c r="H530" s="11"/>
     </row>
     <row r="531">
-      <c r="H531" s="14"/>
+      <c r="H531" s="11"/>
     </row>
     <row r="532">
-      <c r="H532" s="14"/>
+      <c r="H532" s="11"/>
     </row>
     <row r="533">
-      <c r="H533" s="14"/>
+      <c r="H533" s="11"/>
     </row>
     <row r="534">
-      <c r="H534" s="14"/>
+      <c r="H534" s="11"/>
     </row>
     <row r="535">
-      <c r="H535" s="14"/>
+      <c r="H535" s="11"/>
     </row>
     <row r="536">
-      <c r="H536" s="14"/>
+      <c r="H536" s="11"/>
     </row>
     <row r="537">
-      <c r="H537" s="14"/>
+      <c r="H537" s="11"/>
     </row>
     <row r="538">
-      <c r="H538" s="14"/>
+      <c r="H538" s="11"/>
     </row>
     <row r="539">
-      <c r="H539" s="14"/>
+      <c r="H539" s="11"/>
     </row>
     <row r="540">
-      <c r="H540" s="14"/>
+      <c r="H540" s="11"/>
     </row>
     <row r="541">
-      <c r="H541" s="14"/>
+      <c r="H541" s="11"/>
     </row>
     <row r="542">
-      <c r="H542" s="14"/>
+      <c r="H542" s="11"/>
     </row>
     <row r="543">
-      <c r="H543" s="14"/>
+      <c r="H543" s="11"/>
     </row>
     <row r="544">
-      <c r="H544" s="14"/>
+      <c r="H544" s="11"/>
     </row>
     <row r="545">
-      <c r="H545" s="14"/>
+      <c r="H545" s="11"/>
     </row>
     <row r="546">
-      <c r="H546" s="14"/>
+      <c r="H546" s="11"/>
     </row>
     <row r="547">
-      <c r="H547" s="14"/>
+      <c r="H547" s="11"/>
     </row>
     <row r="548">
-      <c r="H548" s="14"/>
+      <c r="H548" s="11"/>
     </row>
     <row r="549">
-      <c r="H549" s="14"/>
+      <c r="H549" s="11"/>
     </row>
     <row r="550">
-      <c r="H550" s="14"/>
+      <c r="H550" s="11"/>
     </row>
     <row r="551">
-      <c r="H551" s="14"/>
+      <c r="H551" s="11"/>
     </row>
     <row r="552">
-      <c r="H552" s="14"/>
+      <c r="H552" s="11"/>
     </row>
     <row r="553">
-      <c r="H553" s="14"/>
+      <c r="H553" s="11"/>
     </row>
     <row r="554">
-      <c r="H554" s="14"/>
+      <c r="H554" s="11"/>
     </row>
     <row r="555">
-      <c r="H555" s="14"/>
+      <c r="H555" s="11"/>
     </row>
     <row r="556">
-      <c r="H556" s="14"/>
+      <c r="H556" s="11"/>
     </row>
     <row r="557">
-      <c r="H557" s="14"/>
+      <c r="H557" s="11"/>
     </row>
     <row r="558">
-      <c r="H558" s="14"/>
+      <c r="H558" s="11"/>
     </row>
     <row r="559">
-      <c r="H559" s="14"/>
+      <c r="H559" s="11"/>
     </row>
     <row r="560">
-      <c r="H560" s="14"/>
+      <c r="H560" s="11"/>
     </row>
     <row r="561">
-      <c r="H561" s="14"/>
+      <c r="H561" s="11"/>
     </row>
     <row r="562">
-      <c r="H562" s="14"/>
+      <c r="H562" s="11"/>
     </row>
     <row r="563">
-      <c r="H563" s="14"/>
+      <c r="H563" s="11"/>
     </row>
     <row r="564">
-      <c r="H564" s="14"/>
+      <c r="H564" s="11"/>
     </row>
     <row r="565">
-      <c r="H565" s="14"/>
+      <c r="H565" s="11"/>
     </row>
     <row r="566">
-      <c r="H566" s="14"/>
+      <c r="H566" s="11"/>
     </row>
     <row r="567">
-      <c r="H567" s="14"/>
+      <c r="H567" s="11"/>
     </row>
     <row r="568">
-      <c r="H568" s="14"/>
+      <c r="H568" s="11"/>
     </row>
     <row r="569">
-      <c r="H569" s="14"/>
+      <c r="H569" s="11"/>
     </row>
     <row r="570">
-      <c r="H570" s="14"/>
+      <c r="H570" s="11"/>
     </row>
     <row r="571">
-      <c r="H571" s="14"/>
+      <c r="H571" s="11"/>
     </row>
     <row r="572">
-      <c r="H572" s="14"/>
+      <c r="H572" s="11"/>
     </row>
     <row r="573">
-      <c r="H573" s="14"/>
+      <c r="H573" s="11"/>
     </row>
     <row r="574">
-      <c r="H574" s="14"/>
+      <c r="H574" s="11"/>
     </row>
     <row r="575">
-      <c r="H575" s="14"/>
+      <c r="H575" s="11"/>
     </row>
     <row r="576">
-      <c r="H576" s="14"/>
+      <c r="H576" s="11"/>
     </row>
     <row r="577">
-      <c r="H577" s="14"/>
+      <c r="H577" s="11"/>
     </row>
     <row r="578">
-      <c r="H578" s="14"/>
+      <c r="H578" s="11"/>
     </row>
     <row r="579">
-      <c r="H579" s="14"/>
+      <c r="H579" s="11"/>
     </row>
     <row r="580">
-      <c r="H580" s="14"/>
+      <c r="H580" s="11"/>
     </row>
     <row r="581">
-      <c r="H581" s="14"/>
+      <c r="H581" s="11"/>
     </row>
     <row r="582">
-      <c r="H582" s="14"/>
+      <c r="H582" s="11"/>
     </row>
     <row r="583">
-      <c r="H583" s="14"/>
+      <c r="H583" s="11"/>
     </row>
     <row r="584">
-      <c r="H584" s="14"/>
+      <c r="H584" s="11"/>
     </row>
     <row r="585">
-      <c r="H585" s="14"/>
+      <c r="H585" s="11"/>
     </row>
     <row r="586">
-      <c r="H586" s="14"/>
+      <c r="H586" s="11"/>
     </row>
     <row r="587">
-      <c r="H587" s="14"/>
+      <c r="H587" s="11"/>
     </row>
     <row r="588">
-      <c r="H588" s="14"/>
+      <c r="H588" s="11"/>
     </row>
     <row r="589">
-      <c r="H589" s="14"/>
+      <c r="H589" s="11"/>
     </row>
     <row r="590">
-      <c r="H590" s="14"/>
+      <c r="H590" s="11"/>
     </row>
     <row r="591">
-      <c r="H591" s="14"/>
+      <c r="H591" s="11"/>
     </row>
     <row r="592">
-      <c r="H592" s="14"/>
+      <c r="H592" s="11"/>
     </row>
     <row r="593">
-      <c r="H593" s="14"/>
+      <c r="H593" s="11"/>
     </row>
     <row r="594">
-      <c r="H594" s="14"/>
+      <c r="H594" s="11"/>
     </row>
     <row r="595">
-      <c r="H595" s="14"/>
+      <c r="H595" s="11"/>
     </row>
     <row r="596">
-      <c r="H596" s="14"/>
+      <c r="H596" s="11"/>
     </row>
     <row r="597">
-      <c r="H597" s="14"/>
+      <c r="H597" s="11"/>
     </row>
     <row r="598">
-      <c r="H598" s="14"/>
+      <c r="H598" s="11"/>
     </row>
     <row r="599">
-      <c r="H599" s="14"/>
+      <c r="H599" s="11"/>
     </row>
     <row r="600">
-      <c r="H600" s="14"/>
+      <c r="H600" s="11"/>
     </row>
     <row r="601">
-      <c r="H601" s="14"/>
+      <c r="H601" s="11"/>
     </row>
     <row r="602">
-      <c r="H602" s="14"/>
+      <c r="H602" s="11"/>
     </row>
     <row r="603">
-      <c r="H603" s="14"/>
+      <c r="H603" s="11"/>
     </row>
     <row r="604">
-      <c r="H604" s="14"/>
+      <c r="H604" s="11"/>
     </row>
     <row r="605">
-      <c r="H605" s="14"/>
+      <c r="H605" s="11"/>
     </row>
     <row r="606">
-      <c r="H606" s="14"/>
+      <c r="H606" s="11"/>
     </row>
     <row r="607">
-      <c r="H607" s="14"/>
+      <c r="H607" s="11"/>
     </row>
     <row r="608">
-      <c r="H608" s="14"/>
+      <c r="H608" s="11"/>
     </row>
     <row r="609">
-      <c r="H609" s="14"/>
+      <c r="H609" s="11"/>
     </row>
     <row r="610">
-      <c r="H610" s="14"/>
+      <c r="H610" s="11"/>
     </row>
     <row r="611">
-      <c r="H611" s="14"/>
+      <c r="H611" s="11"/>
     </row>
     <row r="612">
-      <c r="H612" s="14"/>
+      <c r="H612" s="11"/>
     </row>
     <row r="613">
-      <c r="H613" s="14"/>
+      <c r="H613" s="11"/>
     </row>
     <row r="614">
-      <c r="H614" s="14"/>
+      <c r="H614" s="11"/>
     </row>
     <row r="615">
-      <c r="H615" s="14"/>
+      <c r="H615" s="11"/>
     </row>
     <row r="616">
-      <c r="H616" s="14"/>
+      <c r="H616" s="11"/>
     </row>
     <row r="617">
-      <c r="H617" s="14"/>
+      <c r="H617" s="11"/>
     </row>
     <row r="618">
-      <c r="H618" s="14"/>
+      <c r="H618" s="11"/>
     </row>
     <row r="619">
-      <c r="H619" s="14"/>
+      <c r="H619" s="11"/>
     </row>
     <row r="620">
-      <c r="H620" s="14"/>
+      <c r="H620" s="11"/>
     </row>
     <row r="621">
-      <c r="H621" s="14"/>
+      <c r="H621" s="11"/>
     </row>
     <row r="622">
-      <c r="H622" s="14"/>
+      <c r="H622" s="11"/>
     </row>
     <row r="623">
-      <c r="H623" s="14"/>
+      <c r="H623" s="11"/>
     </row>
     <row r="624">
-      <c r="H624" s="14"/>
+      <c r="H624" s="11"/>
     </row>
     <row r="625">
-      <c r="H625" s="14"/>
+      <c r="H625" s="11"/>
     </row>
     <row r="626">
-      <c r="H626" s="14"/>
+      <c r="H626" s="11"/>
     </row>
     <row r="627">
-      <c r="H627" s="14"/>
+      <c r="H627" s="11"/>
     </row>
     <row r="628">
-      <c r="H628" s="14"/>
+      <c r="H628" s="11"/>
     </row>
     <row r="629">
-      <c r="H629" s="14"/>
+      <c r="H629" s="11"/>
     </row>
     <row r="630">
-      <c r="H630" s="14"/>
+      <c r="H630" s="11"/>
     </row>
     <row r="631">
-      <c r="H631" s="14"/>
+      <c r="H631" s="11"/>
     </row>
     <row r="632">
-      <c r="H632" s="14"/>
+      <c r="H632" s="11"/>
     </row>
     <row r="633">
-      <c r="H633" s="14"/>
+      <c r="H633" s="11"/>
     </row>
     <row r="634">
-      <c r="H634" s="14"/>
+      <c r="H634" s="11"/>
     </row>
     <row r="635">
-      <c r="H635" s="14"/>
+      <c r="H635" s="11"/>
     </row>
     <row r="636">
-      <c r="H636" s="14"/>
+      <c r="H636" s="11"/>
     </row>
     <row r="637">
-      <c r="H637" s="14"/>
+      <c r="H637" s="11"/>
     </row>
     <row r="638">
-      <c r="H638" s="14"/>
+      <c r="H638" s="11"/>
     </row>
     <row r="639">
-      <c r="H639" s="14"/>
+      <c r="H639" s="11"/>
     </row>
     <row r="640">
-      <c r="H640" s="14"/>
+      <c r="H640" s="11"/>
     </row>
     <row r="641">
-      <c r="H641" s="14"/>
+      <c r="H641" s="11"/>
     </row>
     <row r="642">
-      <c r="H642" s="14"/>
+      <c r="H642" s="11"/>
     </row>
     <row r="643">
-      <c r="H643" s="14"/>
+      <c r="H643" s="11"/>
     </row>
     <row r="644">
-      <c r="H644" s="14"/>
+      <c r="H644" s="11"/>
     </row>
     <row r="645">
-      <c r="H645" s="14"/>
+      <c r="H645" s="11"/>
     </row>
     <row r="646">
-      <c r="H646" s="14"/>
+      <c r="H646" s="11"/>
     </row>
     <row r="647">
-      <c r="H647" s="14"/>
+      <c r="H647" s="11"/>
     </row>
     <row r="648">
-      <c r="H648" s="14"/>
+      <c r="H648" s="11"/>
     </row>
     <row r="649">
-      <c r="H649" s="14"/>
+      <c r="H649" s="11"/>
     </row>
     <row r="650">
-      <c r="H650" s="14"/>
+      <c r="H650" s="11"/>
     </row>
     <row r="651">
-      <c r="H651" s="14"/>
+      <c r="H651" s="11"/>
     </row>
     <row r="652">
-      <c r="H652" s="14"/>
+      <c r="H652" s="11"/>
     </row>
     <row r="653">
-      <c r="H653" s="14"/>
+      <c r="H653" s="11"/>
     </row>
     <row r="654">
-      <c r="H654" s="14"/>
+      <c r="H654" s="11"/>
     </row>
     <row r="655">
-      <c r="H655" s="14"/>
+      <c r="H655" s="11"/>
     </row>
     <row r="656">
-      <c r="H656" s="14"/>
+      <c r="H656" s="11"/>
     </row>
     <row r="657">
-      <c r="H657" s="14"/>
+      <c r="H657" s="11"/>
     </row>
     <row r="658">
-      <c r="H658" s="14"/>
+      <c r="H658" s="11"/>
     </row>
     <row r="659">
-      <c r="H659" s="14"/>
+      <c r="H659" s="11"/>
     </row>
     <row r="660">
-      <c r="H660" s="14"/>
+      <c r="H660" s="11"/>
     </row>
     <row r="661">
-      <c r="H661" s="14"/>
+      <c r="H661" s="11"/>
     </row>
     <row r="662">
-      <c r="H662" s="14"/>
+      <c r="H662" s="11"/>
     </row>
     <row r="663">
-      <c r="H663" s="14"/>
+      <c r="H663" s="11"/>
     </row>
     <row r="664">
-      <c r="H664" s="14"/>
+      <c r="H664" s="11"/>
     </row>
     <row r="665">
-      <c r="H665" s="14"/>
+      <c r="H665" s="11"/>
     </row>
     <row r="666">
-      <c r="H666" s="14"/>
+      <c r="H666" s="11"/>
     </row>
     <row r="667">
-      <c r="H667" s="14"/>
+      <c r="H667" s="11"/>
     </row>
     <row r="668">
-      <c r="H668" s="14"/>
+      <c r="H668" s="11"/>
     </row>
     <row r="669">
-      <c r="H669" s="14"/>
+      <c r="H669" s="11"/>
     </row>
     <row r="670">
-      <c r="H670" s="14"/>
+      <c r="H670" s="11"/>
     </row>
     <row r="671">
-      <c r="H671" s="14"/>
+      <c r="H671" s="11"/>
     </row>
     <row r="672">
-      <c r="H672" s="14"/>
+      <c r="H672" s="11"/>
     </row>
     <row r="673">
-      <c r="H673" s="14"/>
+      <c r="H673" s="11"/>
     </row>
     <row r="674">
-      <c r="H674" s="14"/>
+      <c r="H674" s="11"/>
     </row>
     <row r="675">
-      <c r="H675" s="14"/>
+      <c r="H675" s="11"/>
     </row>
     <row r="676">
-      <c r="H676" s="14"/>
+      <c r="H676" s="11"/>
     </row>
     <row r="677">
-      <c r="H677" s="14"/>
+      <c r="H677" s="11"/>
     </row>
     <row r="678">
-      <c r="H678" s="14"/>
+      <c r="H678" s="11"/>
     </row>
     <row r="679">
-      <c r="H679" s="14"/>
+      <c r="H679" s="11"/>
     </row>
     <row r="680">
-      <c r="H680" s="14"/>
+      <c r="H680" s="11"/>
     </row>
     <row r="681">
-      <c r="H681" s="14"/>
+      <c r="H681" s="11"/>
     </row>
     <row r="682">
-      <c r="H682" s="14"/>
+      <c r="H682" s="11"/>
     </row>
     <row r="683">
-      <c r="H683" s="14"/>
+      <c r="H683" s="11"/>
     </row>
     <row r="684">
-      <c r="H684" s="14"/>
+      <c r="H684" s="11"/>
     </row>
     <row r="685">
-      <c r="H685" s="14"/>
+      <c r="H685" s="11"/>
     </row>
     <row r="686">
-      <c r="H686" s="14"/>
+      <c r="H686" s="11"/>
     </row>
     <row r="687">
-      <c r="H687" s="14"/>
+      <c r="H687" s="11"/>
     </row>
     <row r="688">
-      <c r="H688" s="14"/>
+      <c r="H688" s="11"/>
     </row>
     <row r="689">
-      <c r="H689" s="14"/>
+      <c r="H689" s="11"/>
     </row>
     <row r="690">
-      <c r="H690" s="14"/>
+      <c r="H690" s="11"/>
     </row>
     <row r="691">
-      <c r="H691" s="14"/>
+      <c r="H691" s="11"/>
     </row>
     <row r="692">
-      <c r="H692" s="14"/>
+      <c r="H692" s="11"/>
     </row>
     <row r="693">
-      <c r="H693" s="14"/>
+      <c r="H693" s="11"/>
     </row>
     <row r="694">
-      <c r="H694" s="14"/>
+      <c r="H694" s="11"/>
     </row>
     <row r="695">
-      <c r="H695" s="14"/>
+      <c r="H695" s="11"/>
     </row>
     <row r="696">
-      <c r="H696" s="14"/>
+      <c r="H696" s="11"/>
     </row>
     <row r="697">
-      <c r="H697" s="14"/>
+      <c r="H697" s="11"/>
     </row>
     <row r="698">
-      <c r="H698" s="14"/>
+      <c r="H698" s="11"/>
     </row>
     <row r="699">
-      <c r="H699" s="14"/>
+      <c r="H699" s="11"/>
     </row>
     <row r="700">
-      <c r="H700" s="14"/>
+      <c r="H700" s="11"/>
     </row>
     <row r="701">
-      <c r="H701" s="14"/>
+      <c r="H701" s="11"/>
     </row>
     <row r="702">
-      <c r="H702" s="14"/>
+      <c r="H702" s="11"/>
     </row>
     <row r="703">
-      <c r="H703" s="14"/>
+      <c r="H703" s="11"/>
     </row>
     <row r="704">
-      <c r="H704" s="14"/>
+      <c r="H704" s="11"/>
     </row>
     <row r="705">
-      <c r="H705" s="14"/>
+      <c r="H705" s="11"/>
     </row>
     <row r="706">
-      <c r="H706" s="14"/>
+      <c r="H706" s="11"/>
     </row>
     <row r="707">
-      <c r="H707" s="14"/>
+      <c r="H707" s="11"/>
     </row>
     <row r="708">
-      <c r="H708" s="14"/>
+      <c r="H708" s="11"/>
     </row>
     <row r="709">
-      <c r="H709" s="14"/>
+      <c r="H709" s="11"/>
     </row>
     <row r="710">
-      <c r="H710" s="14"/>
+      <c r="H710" s="11"/>
     </row>
     <row r="711">
-      <c r="H711" s="14"/>
+      <c r="H711" s="11"/>
     </row>
     <row r="712">
-      <c r="H712" s="14"/>
+      <c r="H712" s="11"/>
     </row>
     <row r="713">
-      <c r="H713" s="14"/>
+      <c r="H713" s="11"/>
     </row>
     <row r="714">
-      <c r="H714" s="14"/>
+      <c r="H714" s="11"/>
     </row>
     <row r="715">
-      <c r="H715" s="14"/>
+      <c r="H715" s="11"/>
     </row>
     <row r="716">
-      <c r="H716" s="14"/>
+      <c r="H716" s="11"/>
     </row>
     <row r="717">
-      <c r="H717" s="14"/>
+      <c r="H717" s="11"/>
     </row>
     <row r="718">
-      <c r="H718" s="14"/>
+      <c r="H718" s="11"/>
     </row>
     <row r="719">
-      <c r="H719" s="14"/>
+      <c r="H719" s="11"/>
     </row>
     <row r="720">
-      <c r="H720" s="14"/>
+      <c r="H720" s="11"/>
     </row>
     <row r="721">
-      <c r="H721" s="14"/>
+      <c r="H721" s="11"/>
     </row>
     <row r="722">
-      <c r="H722" s="14"/>
+      <c r="H722" s="11"/>
     </row>
     <row r="723">
-      <c r="H723" s="14"/>
+      <c r="H723" s="11"/>
     </row>
     <row r="724">
-      <c r="H724" s="14"/>
+      <c r="H724" s="11"/>
     </row>
     <row r="725">
-      <c r="H725" s="14"/>
+      <c r="H725" s="11"/>
     </row>
     <row r="726">
-      <c r="H726" s="14"/>
+      <c r="H726" s="11"/>
     </row>
     <row r="727">
-      <c r="H727" s="14"/>
+      <c r="H727" s="11"/>
     </row>
     <row r="728">
-      <c r="H728" s="14"/>
+      <c r="H728" s="11"/>
     </row>
     <row r="729">
-      <c r="H729" s="14"/>
+      <c r="H729" s="11"/>
     </row>
     <row r="730">
-      <c r="H730" s="14"/>
+      <c r="H730" s="11"/>
     </row>
     <row r="731">
-      <c r="H731" s="14"/>
+      <c r="H731" s="11"/>
     </row>
     <row r="732">
-      <c r="H732" s="14"/>
+      <c r="H732" s="11"/>
     </row>
     <row r="733">
-      <c r="H733" s="14"/>
+      <c r="H733" s="11"/>
     </row>
     <row r="734">
-      <c r="H734" s="14"/>
+      <c r="H734" s="11"/>
     </row>
     <row r="735">
-      <c r="H735" s="14"/>
+      <c r="H735" s="11"/>
     </row>
     <row r="736">
-      <c r="H736" s="14"/>
+      <c r="H736" s="11"/>
     </row>
     <row r="737">
-      <c r="H737" s="14"/>
+      <c r="H737" s="11"/>
     </row>
     <row r="738">
-      <c r="H738" s="14"/>
+      <c r="H738" s="11"/>
     </row>
     <row r="739">
-      <c r="H739" s="14"/>
+      <c r="H739" s="11"/>
     </row>
     <row r="740">
-      <c r="H740" s="14"/>
+      <c r="H740" s="11"/>
     </row>
     <row r="741">
-      <c r="H741" s="14"/>
+      <c r="H741" s="11"/>
     </row>
     <row r="742">
-      <c r="H742" s="14"/>
+      <c r="H742" s="11"/>
     </row>
     <row r="743">
-      <c r="H743" s="14"/>
+      <c r="H743" s="11"/>
     </row>
     <row r="744">
-      <c r="H744" s="14"/>
+      <c r="H744" s="11"/>
     </row>
     <row r="745">
-      <c r="H745" s="14"/>
+      <c r="H745" s="11"/>
     </row>
     <row r="746">
-      <c r="H746" s="14"/>
+      <c r="H746" s="11"/>
     </row>
     <row r="747">
-      <c r="H747" s="14"/>
+      <c r="H747" s="11"/>
     </row>
     <row r="748">
-      <c r="H748" s="14"/>
+      <c r="H748" s="11"/>
     </row>
     <row r="749">
-      <c r="H749" s="14"/>
+      <c r="H749" s="11"/>
     </row>
     <row r="750">
-      <c r="H750" s="14"/>
+      <c r="H750" s="11"/>
     </row>
     <row r="751">
-      <c r="H751" s="14"/>
+      <c r="H751" s="11"/>
     </row>
     <row r="752">
-      <c r="H752" s="14"/>
+      <c r="H752" s="11"/>
     </row>
     <row r="753">
-      <c r="H753" s="14"/>
+      <c r="H753" s="11"/>
     </row>
     <row r="754">
-      <c r="H754" s="14"/>
+      <c r="H754" s="11"/>
     </row>
     <row r="755">
-      <c r="H755" s="14"/>
+      <c r="H755" s="11"/>
     </row>
     <row r="756">
-      <c r="H756" s="14"/>
+      <c r="H756" s="11"/>
     </row>
     <row r="757">
-      <c r="H757" s="14"/>
+      <c r="H757" s="11"/>
     </row>
     <row r="758">
-      <c r="H758" s="14"/>
+      <c r="H758" s="11"/>
     </row>
     <row r="759">
-      <c r="H759" s="14"/>
+      <c r="H759" s="11"/>
     </row>
     <row r="760">
-      <c r="H760" s="14"/>
+      <c r="H760" s="11"/>
     </row>
     <row r="761">
-      <c r="H761" s="14"/>
+      <c r="H761" s="11"/>
     </row>
     <row r="762">
-      <c r="H762" s="14"/>
+      <c r="H762" s="11"/>
     </row>
     <row r="763">
-      <c r="H763" s="14"/>
+      <c r="H763" s="11"/>
     </row>
     <row r="764">
-      <c r="H764" s="14"/>
+      <c r="H764" s="11"/>
     </row>
     <row r="765">
-      <c r="H765" s="14"/>
+      <c r="H765" s="11"/>
     </row>
     <row r="766">
-      <c r="H766" s="14"/>
+      <c r="H766" s="11"/>
     </row>
     <row r="767">
-      <c r="H767" s="14"/>
+      <c r="H767" s="11"/>
     </row>
     <row r="768">
-      <c r="H768" s="14"/>
+      <c r="H768" s="11"/>
     </row>
     <row r="769">
-      <c r="H769" s="14"/>
+      <c r="H769" s="11"/>
     </row>
     <row r="770">
-      <c r="H770" s="14"/>
+      <c r="H770" s="11"/>
     </row>
     <row r="771">
-      <c r="H771" s="14"/>
+      <c r="H771" s="11"/>
     </row>
     <row r="772">
-      <c r="H772" s="14"/>
+      <c r="H772" s="11"/>
     </row>
     <row r="773">
-      <c r="H773" s="14"/>
+      <c r="H773" s="11"/>
     </row>
     <row r="774">
-      <c r="H774" s="14"/>
+      <c r="H774" s="11"/>
     </row>
     <row r="775">
-      <c r="H775" s="14"/>
+      <c r="H775" s="11"/>
     </row>
     <row r="776">
-      <c r="H776" s="14"/>
+      <c r="H776" s="11"/>
     </row>
     <row r="777">
-      <c r="H777" s="14"/>
+      <c r="H777" s="11"/>
     </row>
     <row r="778">
-      <c r="H778" s="14"/>
+      <c r="H778" s="11"/>
     </row>
     <row r="779">
-      <c r="H779" s="14"/>
+      <c r="H779" s="11"/>
     </row>
     <row r="780">
-      <c r="H780" s="14"/>
+      <c r="H780" s="11"/>
     </row>
     <row r="781">
-      <c r="H781" s="14"/>
+      <c r="H781" s="11"/>
     </row>
     <row r="782">
-      <c r="H782" s="14"/>
+      <c r="H782" s="11"/>
     </row>
     <row r="783">
-      <c r="H783" s="14"/>
+      <c r="H783" s="11"/>
     </row>
     <row r="784">
-      <c r="H784" s="14"/>
+      <c r="H784" s="11"/>
     </row>
     <row r="785">
-      <c r="H785" s="14"/>
+      <c r="H785" s="11"/>
     </row>
     <row r="786">
-      <c r="H786" s="14"/>
+      <c r="H786" s="11"/>
     </row>
     <row r="787">
-      <c r="H787" s="14"/>
+      <c r="H787" s="11"/>
     </row>
     <row r="788">
-      <c r="H788" s="14"/>
+      <c r="H788" s="11"/>
     </row>
     <row r="789">
-      <c r="H789" s="14"/>
+      <c r="H789" s="11"/>
     </row>
     <row r="790">
-      <c r="H790" s="14"/>
+      <c r="H790" s="11"/>
     </row>
     <row r="791">
-      <c r="H791" s="14"/>
+      <c r="H791" s="11"/>
     </row>
     <row r="792">
-      <c r="H792" s="14"/>
+      <c r="H792" s="11"/>
     </row>
     <row r="793">
-      <c r="H793" s="14"/>
+      <c r="H793" s="11"/>
     </row>
     <row r="794">
-      <c r="H794" s="14"/>
+      <c r="H794" s="11"/>
     </row>
     <row r="795">
-      <c r="H795" s="14"/>
+      <c r="H795" s="11"/>
     </row>
     <row r="796">
-      <c r="H796" s="14"/>
+      <c r="H796" s="11"/>
     </row>
     <row r="797">
-      <c r="H797" s="14"/>
+      <c r="H797" s="11"/>
     </row>
     <row r="798">
-      <c r="H798" s="14"/>
+      <c r="H798" s="11"/>
     </row>
     <row r="799">
-      <c r="H799" s="14"/>
+      <c r="H799" s="11"/>
     </row>
     <row r="800">
-      <c r="H800" s="14"/>
+      <c r="H800" s="11"/>
     </row>
     <row r="801">
-      <c r="H801" s="14"/>
+      <c r="H801" s="11"/>
     </row>
     <row r="802">
-      <c r="H802" s="14"/>
+      <c r="H802" s="11"/>
     </row>
     <row r="803">
-      <c r="H803" s="14"/>
+      <c r="H803" s="11"/>
     </row>
     <row r="804">
-      <c r="H804" s="14"/>
+      <c r="H804" s="11"/>
     </row>
     <row r="805">
-      <c r="H805" s="14"/>
+      <c r="H805" s="11"/>
     </row>
     <row r="806">
-      <c r="H806" s="14"/>
+      <c r="H806" s="11"/>
     </row>
     <row r="807">
-      <c r="H807" s="14"/>
+      <c r="H807" s="11"/>
     </row>
     <row r="808">
-      <c r="H808" s="14"/>
+      <c r="H808" s="11"/>
     </row>
     <row r="809">
-      <c r="H809" s="14"/>
+      <c r="H809" s="11"/>
     </row>
     <row r="810">
-      <c r="H810" s="14"/>
+      <c r="H810" s="11"/>
     </row>
     <row r="811">
-      <c r="H811" s="14"/>
+      <c r="H811" s="11"/>
     </row>
     <row r="812">
-      <c r="H812" s="14"/>
+      <c r="H812" s="11"/>
     </row>
     <row r="813">
-      <c r="H813" s="14"/>
+      <c r="H813" s="11"/>
     </row>
     <row r="814">
-      <c r="H814" s="14"/>
+      <c r="H814" s="11"/>
     </row>
     <row r="815">
-      <c r="H815" s="14"/>
+      <c r="H815" s="11"/>
     </row>
     <row r="816">
-      <c r="H816" s="14"/>
+      <c r="H816" s="11"/>
     </row>
     <row r="817">
-      <c r="H817" s="14"/>
+      <c r="H817" s="11"/>
     </row>
     <row r="818">
-      <c r="H818" s="14"/>
+      <c r="H818" s="11"/>
     </row>
     <row r="819">
-      <c r="H819" s="14"/>
+      <c r="H819" s="11"/>
     </row>
     <row r="820">
-      <c r="H820" s="14"/>
+      <c r="H820" s="11"/>
     </row>
     <row r="821">
-      <c r="H821" s="14"/>
+      <c r="H821" s="11"/>
     </row>
     <row r="822">
-      <c r="H822" s="14"/>
+      <c r="H822" s="11"/>
     </row>
     <row r="823">
-      <c r="H823" s="14"/>
+      <c r="H823" s="11"/>
     </row>
     <row r="824">
-      <c r="H824" s="14"/>
+      <c r="H824" s="11"/>
     </row>
     <row r="825">
-      <c r="H825" s="14"/>
+      <c r="H825" s="11"/>
     </row>
     <row r="826">
-      <c r="H826" s="14"/>
+      <c r="H826" s="11"/>
     </row>
     <row r="827">
-      <c r="H827" s="14"/>
+      <c r="H827" s="11"/>
     </row>
     <row r="828">
-      <c r="H828" s="14"/>
+      <c r="H828" s="11"/>
     </row>
     <row r="829">
-      <c r="H829" s="14"/>
+      <c r="H829" s="11"/>
     </row>
     <row r="830">
-      <c r="H830" s="14"/>
+      <c r="H830" s="11"/>
     </row>
     <row r="831">
-      <c r="H831" s="14"/>
+      <c r="H831" s="11"/>
     </row>
     <row r="832">
-      <c r="H832" s="14"/>
+      <c r="H832" s="11"/>
     </row>
     <row r="833">
-      <c r="H833" s="14"/>
+      <c r="H833" s="11"/>
     </row>
     <row r="834">
-      <c r="H834" s="14"/>
+      <c r="H834" s="11"/>
     </row>
     <row r="835">
-      <c r="H835" s="14"/>
+      <c r="H835" s="11"/>
     </row>
     <row r="836">
-      <c r="H836" s="14"/>
+      <c r="H836" s="11"/>
     </row>
     <row r="837">
-      <c r="H837" s="14"/>
+      <c r="H837" s="11"/>
     </row>
     <row r="838">
-      <c r="H838" s="14"/>
+      <c r="H838" s="11"/>
     </row>
     <row r="839">
-      <c r="H839" s="14"/>
+      <c r="H839" s="11"/>
     </row>
     <row r="840">
-      <c r="H840" s="14"/>
+      <c r="H840" s="11"/>
     </row>
     <row r="841">
-      <c r="H841" s="14"/>
+      <c r="H841" s="11"/>
     </row>
     <row r="842">
-      <c r="H842" s="14"/>
+      <c r="H842" s="11"/>
     </row>
     <row r="843">
-      <c r="H843" s="14"/>
+      <c r="H843" s="11"/>
     </row>
     <row r="844">
-      <c r="H844" s="14"/>
+      <c r="H844" s="11"/>
     </row>
     <row r="845">
-      <c r="H845" s="14"/>
+      <c r="H845" s="11"/>
     </row>
     <row r="846">
-      <c r="H846" s="14"/>
+      <c r="H846" s="11"/>
     </row>
     <row r="847">
-      <c r="H847" s="14"/>
+      <c r="H847" s="11"/>
     </row>
     <row r="848">
-      <c r="H848" s="14"/>
+      <c r="H848" s="11"/>
     </row>
     <row r="849">
-      <c r="H849" s="14"/>
+      <c r="H849" s="11"/>
     </row>
     <row r="850">
-      <c r="H850" s="14"/>
+      <c r="H850" s="11"/>
     </row>
     <row r="851">
-      <c r="H851" s="14"/>
+      <c r="H851" s="11"/>
     </row>
     <row r="852">
-      <c r="H852" s="14"/>
+      <c r="H852" s="11"/>
     </row>
     <row r="853">
-      <c r="H853" s="14"/>
+      <c r="H853" s="11"/>
     </row>
     <row r="854">
-      <c r="H854" s="14"/>
+      <c r="H854" s="11"/>
     </row>
     <row r="855">
-      <c r="H855" s="14"/>
+      <c r="H855" s="11"/>
     </row>
     <row r="856">
-      <c r="H856" s="14"/>
+      <c r="H856" s="11"/>
     </row>
     <row r="857">
-      <c r="H857" s="14"/>
+      <c r="H857" s="11"/>
     </row>
     <row r="858">
-      <c r="H858" s="14"/>
+      <c r="H858" s="11"/>
     </row>
     <row r="859">
-      <c r="H859" s="14"/>
+      <c r="H859" s="11"/>
     </row>
     <row r="860">
-      <c r="H860" s="14"/>
+      <c r="H860" s="11"/>
     </row>
     <row r="861">
-      <c r="H861" s="14"/>
+      <c r="H861" s="11"/>
     </row>
     <row r="862">
-      <c r="H862" s="14"/>
+      <c r="H862" s="11"/>
     </row>
     <row r="863">
-      <c r="H863" s="14"/>
+      <c r="H863" s="11"/>
     </row>
     <row r="864">
-      <c r="H864" s="14"/>
+      <c r="H864" s="11"/>
     </row>
     <row r="865">
-      <c r="H865" s="14"/>
+      <c r="H865" s="11"/>
     </row>
     <row r="866">
-      <c r="H866" s="14"/>
+      <c r="H866" s="11"/>
     </row>
     <row r="867">
-      <c r="H867" s="14"/>
+      <c r="H867" s="11"/>
     </row>
     <row r="868">
-      <c r="H868" s="14"/>
+      <c r="H868" s="11"/>
     </row>
     <row r="869">
-      <c r="H869" s="14"/>
+      <c r="H869" s="11"/>
     </row>
     <row r="870">
-      <c r="H870" s="14"/>
+      <c r="H870" s="11"/>
     </row>
     <row r="871">
-      <c r="H871" s="14"/>
+      <c r="H871" s="11"/>
     </row>
     <row r="872">
-      <c r="H872" s="14"/>
+      <c r="H872" s="11"/>
     </row>
     <row r="873">
-      <c r="H873" s="14"/>
+      <c r="H873" s="11"/>
     </row>
     <row r="874">
-      <c r="H874" s="14"/>
+      <c r="H874" s="11"/>
     </row>
     <row r="875">
-      <c r="H875" s="14"/>
+      <c r="H875" s="11"/>
     </row>
     <row r="876">
-      <c r="H876" s="14"/>
+      <c r="H876" s="11"/>
     </row>
     <row r="877">
-      <c r="H877" s="14"/>
+      <c r="H877" s="11"/>
     </row>
     <row r="878">
-      <c r="H878" s="14"/>
+      <c r="H878" s="11"/>
     </row>
     <row r="879">
-      <c r="H879" s="14"/>
+      <c r="H879" s="11"/>
     </row>
     <row r="880">
-      <c r="H880" s="14"/>
+      <c r="H880" s="11"/>
     </row>
     <row r="881">
-      <c r="H881" s="14"/>
+      <c r="H881" s="11"/>
     </row>
     <row r="882">
-      <c r="H882" s="14"/>
+      <c r="H882" s="11"/>
     </row>
     <row r="883">
-      <c r="H883" s="14"/>
+      <c r="H883" s="11"/>
     </row>
     <row r="884">
-      <c r="H884" s="14"/>
+      <c r="H884" s="11"/>
     </row>
     <row r="885">
-      <c r="H885" s="14"/>
+      <c r="H885" s="11"/>
     </row>
     <row r="886">
-      <c r="H886" s="14"/>
+      <c r="H886" s="11"/>
     </row>
     <row r="887">
-      <c r="H887" s="14"/>
+      <c r="H887" s="11"/>
     </row>
     <row r="888">
-      <c r="H888" s="14"/>
+      <c r="H888" s="11"/>
     </row>
     <row r="889">
-      <c r="H889" s="14"/>
+      <c r="H889" s="11"/>
     </row>
     <row r="890">
-      <c r="H890" s="14"/>
+      <c r="H890" s="11"/>
     </row>
     <row r="891">
-      <c r="H891" s="14"/>
+      <c r="H891" s="11"/>
     </row>
     <row r="892">
-      <c r="H892" s="14"/>
+      <c r="H892" s="11"/>
     </row>
     <row r="893">
-      <c r="H893" s="14"/>
+      <c r="H893" s="11"/>
     </row>
     <row r="894">
-      <c r="H894" s="14"/>
+      <c r="H894" s="11"/>
     </row>
     <row r="895">
-      <c r="H895" s="14"/>
+      <c r="H895" s="11"/>
     </row>
     <row r="896">
-      <c r="H896" s="14"/>
+      <c r="H896" s="11"/>
     </row>
     <row r="897">
-      <c r="H897" s="14"/>
+      <c r="H897" s="11"/>
     </row>
     <row r="898">
-      <c r="H898" s="14"/>
+      <c r="H898" s="11"/>
     </row>
     <row r="899">
-      <c r="H899" s="14"/>
+      <c r="H899" s="11"/>
     </row>
     <row r="900">
-      <c r="H900" s="14"/>
+      <c r="H900" s="11"/>
     </row>
     <row r="901">
-      <c r="H901" s="14"/>
+      <c r="H901" s="11"/>
     </row>
     <row r="902">
-      <c r="H902" s="14"/>
+      <c r="H902" s="11"/>
     </row>
     <row r="903">
-      <c r="H903" s="14"/>
+      <c r="H903" s="11"/>
     </row>
     <row r="904">
-      <c r="H904" s="14"/>
+      <c r="H904" s="11"/>
     </row>
     <row r="905">
-      <c r="H905" s="14"/>
+      <c r="H905" s="11"/>
     </row>
     <row r="906">
-      <c r="H906" s="14"/>
+      <c r="H906" s="11"/>
     </row>
     <row r="907">
-      <c r="H907" s="14"/>
+      <c r="H907" s="11"/>
     </row>
     <row r="908">
-      <c r="H908" s="14"/>
+      <c r="H908" s="11"/>
     </row>
     <row r="909">
-      <c r="H909" s="14"/>
+      <c r="H909" s="11"/>
     </row>
     <row r="910">
-      <c r="H910" s="14"/>
+      <c r="H910" s="11"/>
     </row>
     <row r="911">
-      <c r="H911" s="14"/>
+      <c r="H911" s="11"/>
     </row>
     <row r="912">
-      <c r="H912" s="14"/>
+      <c r="H912" s="11"/>
     </row>
     <row r="913">
-      <c r="H913" s="14"/>
+      <c r="H913" s="11"/>
     </row>
     <row r="914">
-      <c r="H914" s="14"/>
+      <c r="H914" s="11"/>
     </row>
     <row r="915">
-      <c r="H915" s="14"/>
+      <c r="H915" s="11"/>
     </row>
     <row r="916">
-      <c r="H916" s="14"/>
+      <c r="H916" s="11"/>
     </row>
     <row r="917">
-      <c r="H917" s="14"/>
+      <c r="H917" s="11"/>
     </row>
     <row r="918">
-      <c r="H918" s="14"/>
+      <c r="H918" s="11"/>
     </row>
     <row r="919">
-      <c r="H919" s="14"/>
+      <c r="H919" s="11"/>
     </row>
     <row r="920">
-      <c r="H920" s="14"/>
+      <c r="H920" s="11"/>
     </row>
     <row r="921">
-      <c r="H921" s="14"/>
+      <c r="H921" s="11"/>
     </row>
     <row r="922">
-      <c r="H922" s="14"/>
+      <c r="H922" s="11"/>
     </row>
     <row r="923">
-      <c r="H923" s="14"/>
+      <c r="H923" s="11"/>
     </row>
     <row r="924">
-      <c r="H924" s="14"/>
+      <c r="H924" s="11"/>
     </row>
     <row r="925">
-      <c r="H925" s="14"/>
+      <c r="H925" s="11"/>
     </row>
     <row r="926">
-      <c r="H926" s="14"/>
+      <c r="H926" s="11"/>
     </row>
     <row r="927">
-      <c r="H927" s="14"/>
+      <c r="H927" s="11"/>
     </row>
     <row r="928">
-      <c r="H928" s="14"/>
+      <c r="H928" s="11"/>
     </row>
     <row r="929">
-      <c r="H929" s="14"/>
+      <c r="H929" s="11"/>
     </row>
     <row r="930">
-      <c r="H930" s="14"/>
+      <c r="H930" s="11"/>
     </row>
     <row r="931">
-      <c r="H931" s="14"/>
+      <c r="H931" s="11"/>
     </row>
     <row r="932">
-      <c r="H932" s="14"/>
+      <c r="H932" s="11"/>
     </row>
     <row r="933">
-      <c r="H933" s="14"/>
+      <c r="H933" s="11"/>
     </row>
     <row r="934">
-      <c r="H934" s="14"/>
+      <c r="H934" s="11"/>
     </row>
     <row r="935">
-      <c r="H935" s="14"/>
+      <c r="H935" s="11"/>
     </row>
     <row r="936">
-      <c r="H936" s="14"/>
+      <c r="H936" s="11"/>
     </row>
     <row r="937">
-      <c r="H937" s="14"/>
+      <c r="H937" s="11"/>
     </row>
     <row r="938">
-      <c r="H938" s="14"/>
+      <c r="H938" s="11"/>
     </row>
     <row r="939">
-      <c r="H939" s="14"/>
+      <c r="H939" s="11"/>
     </row>
     <row r="940">
-      <c r="H940" s="14"/>
+      <c r="H940" s="11"/>
     </row>
     <row r="941">
-      <c r="H941" s="14"/>
+      <c r="H941" s="11"/>
     </row>
     <row r="942">
-      <c r="H942" s="14"/>
+      <c r="H942" s="11"/>
     </row>
     <row r="943">
-      <c r="H943" s="14"/>
+      <c r="H943" s="11"/>
     </row>
     <row r="944">
-      <c r="H944" s="14"/>
+      <c r="H944" s="11"/>
     </row>
     <row r="945">
-      <c r="H945" s="14"/>
+      <c r="H945" s="11"/>
     </row>
     <row r="946">
-      <c r="H946" s="14"/>
+      <c r="H946" s="11"/>
     </row>
     <row r="947">
-      <c r="H947" s="14"/>
+      <c r="H947" s="11"/>
     </row>
     <row r="948">
-      <c r="H948" s="14"/>
+      <c r="H948" s="11"/>
     </row>
     <row r="949">
-      <c r="H949" s="14"/>
+      <c r="H949" s="11"/>
     </row>
     <row r="950">
-      <c r="H950" s="14"/>
+      <c r="H950" s="11"/>
     </row>
     <row r="951">
-      <c r="H951" s="14"/>
+      <c r="H951" s="11"/>
     </row>
     <row r="952">
-      <c r="H952" s="14"/>
+      <c r="H952" s="11"/>
     </row>
     <row r="953">
-      <c r="H953" s="14"/>
+      <c r="H953" s="11"/>
     </row>
     <row r="954">
-      <c r="H954" s="14"/>
+      <c r="H954" s="11"/>
     </row>
     <row r="955">
-      <c r="H955" s="14"/>
+      <c r="H955" s="11"/>
     </row>
     <row r="956">
-      <c r="H956" s="14"/>
+      <c r="H956" s="11"/>
     </row>
     <row r="957">
-      <c r="H957" s="14"/>
+      <c r="H957" s="11"/>
     </row>
     <row r="958">
-      <c r="H958" s="14"/>
+      <c r="H958" s="11"/>
     </row>
     <row r="959">
-      <c r="H959" s="14"/>
+      <c r="H959" s="11"/>
     </row>
     <row r="960">
-      <c r="H960" s="14"/>
+      <c r="H960" s="11"/>
     </row>
     <row r="961">
-      <c r="H961" s="14"/>
+      <c r="H961" s="11"/>
     </row>
     <row r="962">
-      <c r="H962" s="14"/>
+      <c r="H962" s="11"/>
     </row>
     <row r="963">
-      <c r="H963" s="14"/>
+      <c r="H963" s="11"/>
     </row>
     <row r="964">
-      <c r="H964" s="14"/>
+      <c r="H964" s="11"/>
     </row>
     <row r="965">
-      <c r="H965" s="14"/>
+      <c r="H965" s="11"/>
     </row>
     <row r="966">
-      <c r="H966" s="14"/>
+      <c r="H966" s="11"/>
     </row>
     <row r="967">
-      <c r="H967" s="14"/>
+      <c r="H967" s="11"/>
     </row>
     <row r="968">
-      <c r="H968" s="14"/>
+      <c r="H968" s="11"/>
     </row>
     <row r="969">
-      <c r="H969" s="14"/>
+      <c r="H969" s="11"/>
     </row>
     <row r="970">
-      <c r="H970" s="14"/>
+      <c r="H970" s="11"/>
     </row>
     <row r="971">
-      <c r="H971" s="14"/>
+      <c r="H971" s="11"/>
     </row>
     <row r="972">
-      <c r="H972" s="14"/>
+      <c r="H972" s="11"/>
     </row>
     <row r="973">
-      <c r="H973" s="14"/>
+      <c r="H973" s="11"/>
     </row>
     <row r="974">
-      <c r="H974" s="14"/>
+      <c r="H974" s="11"/>
     </row>
     <row r="975">
-      <c r="H975" s="14"/>
+      <c r="H975" s="11"/>
     </row>
     <row r="976">
-      <c r="H976" s="14"/>
+      <c r="H976" s="11"/>
     </row>
     <row r="977">
-      <c r="H977" s="14"/>
+      <c r="H977" s="11"/>
     </row>
     <row r="978">
-      <c r="H978" s="14"/>
+      <c r="H978" s="11"/>
     </row>
     <row r="979">
-      <c r="H979" s="14"/>
+      <c r="H979" s="11"/>
     </row>
     <row r="980">
-      <c r="H980" s="14"/>
+      <c r="H980" s="11"/>
     </row>
     <row r="981">
-      <c r="H981" s="14"/>
+      <c r="H981" s="11"/>
     </row>
     <row r="982">
-      <c r="H982" s="14"/>
+      <c r="H982" s="11"/>
     </row>
     <row r="983">
-      <c r="H983" s="14"/>
+      <c r="H983" s="11"/>
     </row>
     <row r="984">
-      <c r="H984" s="14"/>
+      <c r="H984" s="11"/>
     </row>
     <row r="985">
-      <c r="H985" s="14"/>
+      <c r="H985" s="11"/>
     </row>
     <row r="986">
-      <c r="H986" s="14"/>
+      <c r="H986" s="11"/>
     </row>
     <row r="987">
-      <c r="H987" s="14"/>
+      <c r="H987" s="11"/>
     </row>
     <row r="988">
-      <c r="H988" s="14"/>
+      <c r="H988" s="11"/>
     </row>
     <row r="989">
-      <c r="H989" s="14"/>
+      <c r="H989" s="11"/>
     </row>
     <row r="990">
-      <c r="H990" s="14"/>
+      <c r="H990" s="11"/>
     </row>
     <row r="991">
-      <c r="H991" s="14"/>
+      <c r="H991" s="11"/>
     </row>
     <row r="992">
-      <c r="H992" s="14"/>
+      <c r="H992" s="11"/>
     </row>
     <row r="993">
-      <c r="H993" s="14"/>
+      <c r="H993" s="11"/>
     </row>
     <row r="994">
-      <c r="H994" s="14"/>
+      <c r="H994" s="11"/>
     </row>
     <row r="995">
-      <c r="H995" s="14"/>
+      <c r="H995" s="11"/>
     </row>
     <row r="996">
-      <c r="H996" s="14"/>
+      <c r="H996" s="11"/>
     </row>
     <row r="997">
-      <c r="H997" s="14"/>
+      <c r="H997" s="11"/>
     </row>
     <row r="998">
-      <c r="H998" s="14"/>
+      <c r="H998" s="11"/>
     </row>
     <row r="999">
-      <c r="H999" s="14"/>
+      <c r="H999" s="11"/>
     </row>
     <row r="1000">
-      <c r="H1000" s="14"/>
+      <c r="H1000" s="11"/>
     </row>
     <row r="1001">
-      <c r="H1001" s="14"/>
+      <c r="H1001" s="11"/>
     </row>
     <row r="1002">
-      <c r="H1002" s="14"/>
+      <c r="H1002" s="11"/>
     </row>
     <row r="1003">
-      <c r="H1003" s="14"/>
+      <c r="H1003" s="11"/>
     </row>
     <row r="1004">
-      <c r="H1004" s="14"/>
+      <c r="H1004" s="11"/>
     </row>
     <row r="1005">
-      <c r="H1005" s="14"/>
+      <c r="H1005" s="11"/>
     </row>
     <row r="1006">
-      <c r="H1006" s="14"/>
+      <c r="H1006" s="11"/>
     </row>
     <row r="1007">
-      <c r="H1007" s="14"/>
+      <c r="H1007" s="11"/>
     </row>
     <row r="1008">
-      <c r="H1008" s="14"/>
+      <c r="H1008" s="11"/>
     </row>
     <row r="1009">
-      <c r="H1009" s="14"/>
+      <c r="H1009" s="11"/>
     </row>
     <row r="1010">
-      <c r="H1010" s="14"/>
+      <c r="H1010" s="11"/>
     </row>
     <row r="1011">
-      <c r="H1011" s="14"/>
+      <c r="H1011" s="11"/>
     </row>
     <row r="1012">
-      <c r="H1012" s="14"/>
+      <c r="H1012" s="11"/>
     </row>
     <row r="1013">
-      <c r="H1013" s="14"/>
+      <c r="H1013" s="11"/>
     </row>
     <row r="1014">
-      <c r="H1014" s="14"/>
+      <c r="H1014" s="11"/>
     </row>
     <row r="1015">
-      <c r="H1015" s="14"/>
+      <c r="H1015" s="11"/>
     </row>
     <row r="1016">
-      <c r="H1016" s="14"/>
+      <c r="H1016" s="11"/>
     </row>
     <row r="1017">
-      <c r="H1017" s="14"/>
+      <c r="H1017" s="11"/>
     </row>
     <row r="1018">
-      <c r="H1018" s="14"/>
+      <c r="H1018" s="11"/>
     </row>
     <row r="1019">
-      <c r="H1019" s="14"/>
+      <c r="H1019" s="11"/>
     </row>
     <row r="1020">
-      <c r="H1020" s="14"/>
+      <c r="H1020" s="11"/>
     </row>
     <row r="1021">
-      <c r="H1021" s="14"/>
+      <c r="H1021" s="11"/>
     </row>
     <row r="1022">
-      <c r="H1022" s="14"/>
+      <c r="H1022" s="11"/>
     </row>
     <row r="1023">
-      <c r="H1023" s="14"/>
+      <c r="H1023" s="11"/>
     </row>
     <row r="1024">
-      <c r="H1024" s="14"/>
+      <c r="H1024" s="11"/>
     </row>
     <row r="1025">
-      <c r="H1025" s="14"/>
+      <c r="H1025" s="11"/>
     </row>
     <row r="1026">
-      <c r="H1026" s="14"/>
+      <c r="H1026" s="11"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
